--- a/dihadron/expdata/1000cut2.xlsx
+++ b/dihadron/expdata/1000cut2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F12D976-B0C5-D648-AD8B-ADF2252967C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E36008-0E23-E04F-A8F4-D740EC8FFEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>units</t>
   </si>
   <si>
-    <t>microbarn/GeV</t>
-  </si>
-  <si>
     <t>zbin</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>RS</t>
+  </si>
+  <si>
+    <t>nb/GeV</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W942"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A805" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D940" sqref="D940"/>
+    <sheetView tabSelected="1" topLeftCell="A915" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F942"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>12</v>
@@ -523,7 +523,7 @@
         <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>2</v>
@@ -541,10 +541,10 @@
         <v>3</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>4</v>
@@ -559,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
@@ -583,7 +583,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4">
         <v>1</v>
@@ -646,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
@@ -709,7 +709,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -961,7 +961,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -1024,7 +1024,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
@@ -1087,7 +1087,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -1150,7 +1150,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -1276,7 +1276,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -1339,7 +1339,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -1402,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
@@ -1591,7 +1591,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
@@ -1654,7 +1654,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -1717,7 +1717,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
@@ -1780,7 +1780,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -1843,7 +1843,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
@@ -1906,7 +1906,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G23" s="4">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
@@ -2032,7 +2032,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
@@ -2095,7 +2095,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -2158,7 +2158,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
@@ -2221,7 +2221,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -2284,7 +2284,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -2347,7 +2347,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -2410,7 +2410,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G31" s="4">
         <v>1</v>
@@ -2473,7 +2473,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G32" s="4">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -2599,7 +2599,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -2662,7 +2662,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -2725,7 +2725,7 @@
         <v>14</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -2788,7 +2788,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
@@ -2851,7 +2851,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
@@ -2914,7 +2914,7 @@
         <v>14</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
@@ -2977,7 +2977,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
@@ -3040,7 +3040,7 @@
         <v>14</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G41" s="4">
         <v>1</v>
@@ -3103,7 +3103,7 @@
         <v>14</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G42" s="4">
         <v>2</v>
@@ -3166,7 +3166,7 @@
         <v>14</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G43" s="4">
         <v>2</v>
@@ -3229,7 +3229,7 @@
         <v>14</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G44" s="4">
         <v>2</v>
@@ -3292,7 +3292,7 @@
         <v>14</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G45" s="4">
         <v>2</v>
@@ -3355,7 +3355,7 @@
         <v>14</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G46" s="4">
         <v>2</v>
@@ -3418,7 +3418,7 @@
         <v>14</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G47" s="4">
         <v>2</v>
@@ -3481,7 +3481,7 @@
         <v>14</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G48" s="4">
         <v>2</v>
@@ -3544,7 +3544,7 @@
         <v>14</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G49" s="4">
         <v>2</v>
@@ -3607,7 +3607,7 @@
         <v>14</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G50" s="4">
         <v>2</v>
@@ -3670,7 +3670,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G51" s="4">
         <v>2</v>
@@ -3733,7 +3733,7 @@
         <v>14</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G52" s="4">
         <v>2</v>
@@ -3796,7 +3796,7 @@
         <v>14</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G53" s="4">
         <v>2</v>
@@ -3859,7 +3859,7 @@
         <v>14</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G54" s="4">
         <v>2</v>
@@ -3922,7 +3922,7 @@
         <v>14</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G55" s="4">
         <v>2</v>
@@ -3985,7 +3985,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G56" s="4">
         <v>2</v>
@@ -4048,7 +4048,7 @@
         <v>14</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G57" s="4">
         <v>2</v>
@@ -4111,7 +4111,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G58" s="4">
         <v>2</v>
@@ -4174,7 +4174,7 @@
         <v>14</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G59" s="4">
         <v>2</v>
@@ -4237,7 +4237,7 @@
         <v>14</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G60" s="4">
         <v>2</v>
@@ -4300,7 +4300,7 @@
         <v>14</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G61" s="4">
         <v>2</v>
@@ -4363,7 +4363,7 @@
         <v>14</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G62" s="4">
         <v>2</v>
@@ -4426,7 +4426,7 @@
         <v>14</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G63" s="4">
         <v>2</v>
@@ -4489,7 +4489,7 @@
         <v>14</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G64" s="4">
         <v>2</v>
@@ -4552,7 +4552,7 @@
         <v>14</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G65" s="4">
         <v>2</v>
@@ -4615,7 +4615,7 @@
         <v>14</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G66" s="4">
         <v>2</v>
@@ -4678,7 +4678,7 @@
         <v>14</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G67" s="4">
         <v>2</v>
@@ -4741,7 +4741,7 @@
         <v>14</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G68" s="4">
         <v>2</v>
@@ -4804,7 +4804,7 @@
         <v>14</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G69" s="4">
         <v>2</v>
@@ -4867,7 +4867,7 @@
         <v>14</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G70" s="4">
         <v>2</v>
@@ -4930,7 +4930,7 @@
         <v>14</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G71" s="4">
         <v>2</v>
@@ -4993,7 +4993,7 @@
         <v>14</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G72" s="4">
         <v>2</v>
@@ -5056,7 +5056,7 @@
         <v>14</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G73" s="4">
         <v>2</v>
@@ -5119,7 +5119,7 @@
         <v>14</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G74" s="4">
         <v>2</v>
@@ -5182,7 +5182,7 @@
         <v>14</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G75" s="4">
         <v>2</v>
@@ -5245,7 +5245,7 @@
         <v>14</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G76" s="4">
         <v>2</v>
@@ -5308,7 +5308,7 @@
         <v>14</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G77" s="4">
         <v>2</v>
@@ -5371,7 +5371,7 @@
         <v>14</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G78" s="4">
         <v>2</v>
@@ -5434,7 +5434,7 @@
         <v>14</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G79" s="4">
         <v>2</v>
@@ -5497,7 +5497,7 @@
         <v>14</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G80" s="4">
         <v>2</v>
@@ -5560,7 +5560,7 @@
         <v>14</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G81" s="4">
         <v>2</v>
@@ -5623,7 +5623,7 @@
         <v>14</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G82" s="4">
         <v>2</v>
@@ -5686,7 +5686,7 @@
         <v>14</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G83" s="4">
         <v>2</v>
@@ -5749,7 +5749,7 @@
         <v>14</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G84" s="4">
         <v>2</v>
@@ -5812,7 +5812,7 @@
         <v>14</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G85" s="4">
         <v>2</v>
@@ -5875,7 +5875,7 @@
         <v>14</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G86" s="4">
         <v>2</v>
@@ -5938,7 +5938,7 @@
         <v>14</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G87" s="4">
         <v>2</v>
@@ -6001,7 +6001,7 @@
         <v>14</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G88" s="4">
         <v>2</v>
@@ -6064,7 +6064,7 @@
         <v>14</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G89" s="4">
         <v>2</v>
@@ -6127,7 +6127,7 @@
         <v>14</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G90" s="4">
         <v>2</v>
@@ -6190,7 +6190,7 @@
         <v>14</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G91" s="4">
         <v>2</v>
@@ -6253,7 +6253,7 @@
         <v>14</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G92" s="4">
         <v>2</v>
@@ -6316,7 +6316,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G93" s="4">
         <v>2</v>
@@ -6379,7 +6379,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G94" s="4">
         <v>2</v>
@@ -6442,7 +6442,7 @@
         <v>14</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G95" s="4">
         <v>2</v>
@@ -6505,7 +6505,7 @@
         <v>14</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G96" s="4">
         <v>2</v>
@@ -6568,7 +6568,7 @@
         <v>14</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G97" s="4">
         <v>3</v>
@@ -6631,7 +6631,7 @@
         <v>14</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G98" s="4">
         <v>3</v>
@@ -6694,7 +6694,7 @@
         <v>14</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G99" s="4">
         <v>3</v>
@@ -6757,7 +6757,7 @@
         <v>14</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G100" s="4">
         <v>3</v>
@@ -6820,7 +6820,7 @@
         <v>14</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G101" s="4">
         <v>3</v>
@@ -6883,7 +6883,7 @@
         <v>14</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G102" s="4">
         <v>3</v>
@@ -6946,7 +6946,7 @@
         <v>14</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G103" s="4">
         <v>3</v>
@@ -7009,7 +7009,7 @@
         <v>14</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G104" s="4">
         <v>3</v>
@@ -7072,7 +7072,7 @@
         <v>14</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G105" s="4">
         <v>3</v>
@@ -7135,7 +7135,7 @@
         <v>14</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G106" s="4">
         <v>3</v>
@@ -7198,7 +7198,7 @@
         <v>14</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G107" s="4">
         <v>3</v>
@@ -7261,7 +7261,7 @@
         <v>14</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G108" s="4">
         <v>3</v>
@@ -7324,7 +7324,7 @@
         <v>14</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G109" s="4">
         <v>3</v>
@@ -7387,7 +7387,7 @@
         <v>14</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G110" s="4">
         <v>3</v>
@@ -7450,7 +7450,7 @@
         <v>14</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G111" s="4">
         <v>3</v>
@@ -7513,7 +7513,7 @@
         <v>14</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G112" s="4">
         <v>3</v>
@@ -7576,7 +7576,7 @@
         <v>14</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G113" s="4">
         <v>3</v>
@@ -7639,7 +7639,7 @@
         <v>14</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G114" s="4">
         <v>3</v>
@@ -7702,7 +7702,7 @@
         <v>14</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G115" s="4">
         <v>3</v>
@@ -7765,7 +7765,7 @@
         <v>14</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G116" s="4">
         <v>3</v>
@@ -7828,7 +7828,7 @@
         <v>14</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G117" s="4">
         <v>3</v>
@@ -7891,7 +7891,7 @@
         <v>14</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G118" s="4">
         <v>3</v>
@@ -7954,7 +7954,7 @@
         <v>14</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G119" s="4">
         <v>3</v>
@@ -8017,7 +8017,7 @@
         <v>14</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G120" s="4">
         <v>3</v>
@@ -8080,7 +8080,7 @@
         <v>14</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G121" s="4">
         <v>3</v>
@@ -8143,7 +8143,7 @@
         <v>14</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G122" s="4">
         <v>3</v>
@@ -8206,7 +8206,7 @@
         <v>14</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G123" s="4">
         <v>3</v>
@@ -8269,7 +8269,7 @@
         <v>14</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G124" s="4">
         <v>3</v>
@@ -8332,7 +8332,7 @@
         <v>14</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G125" s="4">
         <v>3</v>
@@ -8395,7 +8395,7 @@
         <v>14</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G126" s="4">
         <v>3</v>
@@ -8458,7 +8458,7 @@
         <v>14</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G127" s="4">
         <v>3</v>
@@ -8521,7 +8521,7 @@
         <v>14</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G128" s="4">
         <v>3</v>
@@ -8584,7 +8584,7 @@
         <v>14</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G129" s="4">
         <v>3</v>
@@ -8647,7 +8647,7 @@
         <v>14</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G130" s="4">
         <v>3</v>
@@ -8710,7 +8710,7 @@
         <v>14</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G131" s="4">
         <v>3</v>
@@ -8773,7 +8773,7 @@
         <v>14</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G132" s="4">
         <v>3</v>
@@ -8836,7 +8836,7 @@
         <v>14</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G133" s="4">
         <v>3</v>
@@ -8899,7 +8899,7 @@
         <v>14</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G134" s="4">
         <v>3</v>
@@ -8962,7 +8962,7 @@
         <v>14</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G135" s="4">
         <v>3</v>
@@ -9025,7 +9025,7 @@
         <v>14</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G136" s="4">
         <v>3</v>
@@ -9088,7 +9088,7 @@
         <v>14</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G137" s="4">
         <v>3</v>
@@ -9151,7 +9151,7 @@
         <v>14</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G138" s="4">
         <v>3</v>
@@ -9214,7 +9214,7 @@
         <v>14</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G139" s="4">
         <v>3</v>
@@ -9277,7 +9277,7 @@
         <v>14</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G140" s="4">
         <v>3</v>
@@ -9340,7 +9340,7 @@
         <v>14</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G141" s="4">
         <v>3</v>
@@ -9403,7 +9403,7 @@
         <v>14</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G142" s="4">
         <v>3</v>
@@ -9466,7 +9466,7 @@
         <v>14</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G143" s="4">
         <v>3</v>
@@ -9529,7 +9529,7 @@
         <v>14</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G144" s="4">
         <v>3</v>
@@ -9592,7 +9592,7 @@
         <v>14</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G145" s="4">
         <v>3</v>
@@ -9655,7 +9655,7 @@
         <v>14</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G146" s="4">
         <v>3</v>
@@ -9718,7 +9718,7 @@
         <v>14</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G147" s="4">
         <v>3</v>
@@ -9781,7 +9781,7 @@
         <v>14</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G148" s="4">
         <v>3</v>
@@ -9844,7 +9844,7 @@
         <v>14</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G149" s="4">
         <v>3</v>
@@ -9907,7 +9907,7 @@
         <v>14</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G150" s="4">
         <v>3</v>
@@ -9970,7 +9970,7 @@
         <v>14</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G151" s="4">
         <v>3</v>
@@ -10033,7 +10033,7 @@
         <v>14</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G152" s="4">
         <v>3</v>
@@ -10096,7 +10096,7 @@
         <v>14</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G153" s="4">
         <v>3</v>
@@ -10159,7 +10159,7 @@
         <v>14</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G154" s="4">
         <v>3</v>
@@ -10222,7 +10222,7 @@
         <v>14</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G155" s="4">
         <v>3</v>
@@ -10285,7 +10285,7 @@
         <v>14</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G156" s="4">
         <v>3</v>
@@ -10348,7 +10348,7 @@
         <v>14</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G157" s="4">
         <v>4</v>
@@ -10411,7 +10411,7 @@
         <v>14</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G158" s="4">
         <v>4</v>
@@ -10474,7 +10474,7 @@
         <v>14</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G159" s="4">
         <v>4</v>
@@ -10537,7 +10537,7 @@
         <v>14</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G160" s="4">
         <v>4</v>
@@ -10600,7 +10600,7 @@
         <v>14</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G161" s="4">
         <v>4</v>
@@ -10663,7 +10663,7 @@
         <v>14</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G162" s="4">
         <v>4</v>
@@ -10726,7 +10726,7 @@
         <v>14</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G163" s="4">
         <v>4</v>
@@ -10789,7 +10789,7 @@
         <v>14</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G164" s="4">
         <v>4</v>
@@ -10852,7 +10852,7 @@
         <v>14</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G165" s="4">
         <v>4</v>
@@ -10915,7 +10915,7 @@
         <v>14</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G166" s="4">
         <v>4</v>
@@ -10978,7 +10978,7 @@
         <v>14</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G167" s="4">
         <v>4</v>
@@ -11041,7 +11041,7 @@
         <v>14</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G168" s="4">
         <v>4</v>
@@ -11104,7 +11104,7 @@
         <v>14</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G169" s="4">
         <v>4</v>
@@ -11167,7 +11167,7 @@
         <v>14</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G170" s="4">
         <v>4</v>
@@ -11230,7 +11230,7 @@
         <v>14</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G171" s="4">
         <v>4</v>
@@ -11293,7 +11293,7 @@
         <v>14</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G172" s="4">
         <v>4</v>
@@ -11356,7 +11356,7 @@
         <v>14</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G173" s="4">
         <v>4</v>
@@ -11419,7 +11419,7 @@
         <v>14</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G174" s="4">
         <v>4</v>
@@ -11482,7 +11482,7 @@
         <v>14</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G175" s="4">
         <v>4</v>
@@ -11545,7 +11545,7 @@
         <v>14</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G176" s="4">
         <v>4</v>
@@ -11608,7 +11608,7 @@
         <v>14</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G177" s="4">
         <v>4</v>
@@ -11671,7 +11671,7 @@
         <v>14</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G178" s="4">
         <v>4</v>
@@ -11734,7 +11734,7 @@
         <v>14</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G179" s="4">
         <v>4</v>
@@ -11797,7 +11797,7 @@
         <v>14</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G180" s="4">
         <v>4</v>
@@ -11860,7 +11860,7 @@
         <v>14</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G181" s="4">
         <v>4</v>
@@ -11923,7 +11923,7 @@
         <v>14</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G182" s="4">
         <v>4</v>
@@ -11986,7 +11986,7 @@
         <v>14</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G183" s="4">
         <v>4</v>
@@ -12049,7 +12049,7 @@
         <v>14</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G184" s="4">
         <v>4</v>
@@ -12112,7 +12112,7 @@
         <v>14</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G185" s="4">
         <v>4</v>
@@ -12175,7 +12175,7 @@
         <v>14</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G186" s="4">
         <v>4</v>
@@ -12238,7 +12238,7 @@
         <v>14</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G187" s="4">
         <v>4</v>
@@ -12301,7 +12301,7 @@
         <v>14</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G188" s="4">
         <v>4</v>
@@ -12364,7 +12364,7 @@
         <v>14</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G189" s="4">
         <v>4</v>
@@ -12427,7 +12427,7 @@
         <v>14</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G190" s="4">
         <v>4</v>
@@ -12490,7 +12490,7 @@
         <v>14</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G191" s="4">
         <v>4</v>
@@ -12553,7 +12553,7 @@
         <v>14</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G192" s="4">
         <v>4</v>
@@ -12616,7 +12616,7 @@
         <v>14</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G193" s="4">
         <v>4</v>
@@ -12679,7 +12679,7 @@
         <v>14</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G194" s="4">
         <v>4</v>
@@ -12742,7 +12742,7 @@
         <v>14</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G195" s="4">
         <v>4</v>
@@ -12805,7 +12805,7 @@
         <v>14</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G196" s="4">
         <v>4</v>
@@ -12868,7 +12868,7 @@
         <v>14</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G197" s="4">
         <v>4</v>
@@ -12931,7 +12931,7 @@
         <v>14</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G198" s="4">
         <v>4</v>
@@ -12994,7 +12994,7 @@
         <v>14</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G199" s="4">
         <v>4</v>
@@ -13057,7 +13057,7 @@
         <v>14</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G200" s="4">
         <v>4</v>
@@ -13120,7 +13120,7 @@
         <v>14</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G201" s="4">
         <v>4</v>
@@ -13183,7 +13183,7 @@
         <v>14</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G202" s="4">
         <v>4</v>
@@ -13246,7 +13246,7 @@
         <v>14</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G203" s="4">
         <v>4</v>
@@ -13309,7 +13309,7 @@
         <v>14</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G204" s="4">
         <v>4</v>
@@ -13372,7 +13372,7 @@
         <v>14</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G205" s="4">
         <v>4</v>
@@ -13435,7 +13435,7 @@
         <v>14</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G206" s="4">
         <v>4</v>
@@ -13498,7 +13498,7 @@
         <v>14</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G207" s="4">
         <v>4</v>
@@ -13561,7 +13561,7 @@
         <v>14</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G208" s="4">
         <v>4</v>
@@ -13624,7 +13624,7 @@
         <v>14</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G209" s="4">
         <v>4</v>
@@ -13687,7 +13687,7 @@
         <v>14</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G210" s="4">
         <v>4</v>
@@ -13750,7 +13750,7 @@
         <v>14</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G211" s="4">
         <v>4</v>
@@ -13813,7 +13813,7 @@
         <v>14</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G212" s="4">
         <v>4</v>
@@ -13876,7 +13876,7 @@
         <v>14</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G213" s="4">
         <v>4</v>
@@ -13939,7 +13939,7 @@
         <v>14</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G214" s="4">
         <v>4</v>
@@ -14002,7 +14002,7 @@
         <v>14</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G215" s="4">
         <v>4</v>
@@ -14065,7 +14065,7 @@
         <v>14</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G216" s="4">
         <v>4</v>
@@ -14128,7 +14128,7 @@
         <v>14</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G217" s="4">
         <v>5</v>
@@ -14191,7 +14191,7 @@
         <v>14</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G218" s="4">
         <v>5</v>
@@ -14254,7 +14254,7 @@
         <v>14</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G219" s="4">
         <v>5</v>
@@ -14317,7 +14317,7 @@
         <v>14</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G220" s="4">
         <v>5</v>
@@ -14380,7 +14380,7 @@
         <v>14</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G221" s="4">
         <v>5</v>
@@ -14443,7 +14443,7 @@
         <v>14</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G222" s="4">
         <v>5</v>
@@ -14506,7 +14506,7 @@
         <v>14</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G223" s="4">
         <v>5</v>
@@ -14569,7 +14569,7 @@
         <v>14</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G224" s="4">
         <v>5</v>
@@ -14632,7 +14632,7 @@
         <v>14</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G225" s="4">
         <v>5</v>
@@ -14695,7 +14695,7 @@
         <v>14</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G226" s="4">
         <v>5</v>
@@ -14758,7 +14758,7 @@
         <v>14</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G227" s="4">
         <v>5</v>
@@ -14821,7 +14821,7 @@
         <v>14</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G228" s="4">
         <v>5</v>
@@ -14884,7 +14884,7 @@
         <v>14</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G229" s="4">
         <v>5</v>
@@ -14947,7 +14947,7 @@
         <v>14</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G230" s="4">
         <v>5</v>
@@ -15010,7 +15010,7 @@
         <v>14</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G231" s="4">
         <v>5</v>
@@ -15073,7 +15073,7 @@
         <v>14</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G232" s="4">
         <v>5</v>
@@ -15136,7 +15136,7 @@
         <v>14</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G233" s="4">
         <v>5</v>
@@ -15199,7 +15199,7 @@
         <v>14</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G234" s="4">
         <v>5</v>
@@ -15262,7 +15262,7 @@
         <v>14</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G235" s="4">
         <v>5</v>
@@ -15325,7 +15325,7 @@
         <v>14</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G236" s="4">
         <v>5</v>
@@ -15388,7 +15388,7 @@
         <v>14</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G237" s="4">
         <v>5</v>
@@ -15451,7 +15451,7 @@
         <v>14</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G238" s="4">
         <v>5</v>
@@ -15514,7 +15514,7 @@
         <v>14</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G239" s="4">
         <v>5</v>
@@ -15577,7 +15577,7 @@
         <v>14</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G240" s="4">
         <v>5</v>
@@ -15640,7 +15640,7 @@
         <v>14</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G241" s="4">
         <v>5</v>
@@ -15703,7 +15703,7 @@
         <v>14</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G242" s="4">
         <v>5</v>
@@ -15766,7 +15766,7 @@
         <v>14</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G243" s="4">
         <v>5</v>
@@ -15829,7 +15829,7 @@
         <v>14</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G244" s="4">
         <v>5</v>
@@ -15892,7 +15892,7 @@
         <v>14</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G245" s="4">
         <v>5</v>
@@ -15955,7 +15955,7 @@
         <v>14</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G246" s="4">
         <v>5</v>
@@ -16018,7 +16018,7 @@
         <v>14</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G247" s="4">
         <v>5</v>
@@ -16081,7 +16081,7 @@
         <v>14</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G248" s="4">
         <v>5</v>
@@ -16144,7 +16144,7 @@
         <v>14</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G249" s="4">
         <v>5</v>
@@ -16207,7 +16207,7 @@
         <v>14</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G250" s="4">
         <v>5</v>
@@ -16270,7 +16270,7 @@
         <v>14</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G251" s="4">
         <v>5</v>
@@ -16333,7 +16333,7 @@
         <v>14</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G252" s="4">
         <v>5</v>
@@ -16396,7 +16396,7 @@
         <v>14</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G253" s="4">
         <v>5</v>
@@ -16459,7 +16459,7 @@
         <v>14</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G254" s="4">
         <v>5</v>
@@ -16522,7 +16522,7 @@
         <v>14</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G255" s="4">
         <v>5</v>
@@ -16585,7 +16585,7 @@
         <v>14</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G256" s="4">
         <v>5</v>
@@ -16648,7 +16648,7 @@
         <v>14</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G257" s="4">
         <v>5</v>
@@ -16711,7 +16711,7 @@
         <v>14</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G258" s="4">
         <v>5</v>
@@ -16774,7 +16774,7 @@
         <v>14</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G259" s="4">
         <v>5</v>
@@ -16837,7 +16837,7 @@
         <v>14</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G260" s="4">
         <v>5</v>
@@ -16900,7 +16900,7 @@
         <v>14</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G261" s="4">
         <v>5</v>
@@ -16963,7 +16963,7 @@
         <v>14</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G262" s="4">
         <v>5</v>
@@ -17026,7 +17026,7 @@
         <v>14</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G263" s="4">
         <v>5</v>
@@ -17089,7 +17089,7 @@
         <v>14</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G264" s="4">
         <v>5</v>
@@ -17152,7 +17152,7 @@
         <v>14</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G265" s="4">
         <v>5</v>
@@ -17215,7 +17215,7 @@
         <v>14</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G266" s="4">
         <v>5</v>
@@ -17278,7 +17278,7 @@
         <v>14</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G267" s="4">
         <v>5</v>
@@ -17341,7 +17341,7 @@
         <v>14</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G268" s="4">
         <v>5</v>
@@ -17404,7 +17404,7 @@
         <v>14</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G269" s="4">
         <v>5</v>
@@ -17467,7 +17467,7 @@
         <v>14</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G270" s="4">
         <v>5</v>
@@ -17530,7 +17530,7 @@
         <v>14</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G271" s="4">
         <v>5</v>
@@ -17593,7 +17593,7 @@
         <v>14</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G272" s="4">
         <v>5</v>
@@ -17656,7 +17656,7 @@
         <v>14</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G273" s="4">
         <v>5</v>
@@ -17719,7 +17719,7 @@
         <v>14</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G274" s="4">
         <v>5</v>
@@ -17782,7 +17782,7 @@
         <v>14</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G275" s="4">
         <v>5</v>
@@ -17845,7 +17845,7 @@
         <v>14</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G276" s="4">
         <v>5</v>
@@ -17908,7 +17908,7 @@
         <v>14</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G277" s="4">
         <v>6</v>
@@ -17971,7 +17971,7 @@
         <v>14</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G278" s="4">
         <v>6</v>
@@ -18034,7 +18034,7 @@
         <v>14</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G279" s="4">
         <v>6</v>
@@ -18097,7 +18097,7 @@
         <v>14</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G280" s="4">
         <v>6</v>
@@ -18160,7 +18160,7 @@
         <v>14</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G281" s="4">
         <v>6</v>
@@ -18223,7 +18223,7 @@
         <v>14</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G282" s="4">
         <v>6</v>
@@ -18286,7 +18286,7 @@
         <v>14</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G283" s="4">
         <v>6</v>
@@ -18349,7 +18349,7 @@
         <v>14</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G284" s="4">
         <v>6</v>
@@ -18412,7 +18412,7 @@
         <v>14</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G285" s="4">
         <v>6</v>
@@ -18475,7 +18475,7 @@
         <v>14</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G286" s="4">
         <v>6</v>
@@ -18538,7 +18538,7 @@
         <v>14</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G287" s="4">
         <v>6</v>
@@ -18601,7 +18601,7 @@
         <v>14</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G288" s="4">
         <v>6</v>
@@ -18664,7 +18664,7 @@
         <v>14</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G289" s="4">
         <v>6</v>
@@ -18727,7 +18727,7 @@
         <v>14</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G290" s="4">
         <v>6</v>
@@ -18790,7 +18790,7 @@
         <v>14</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G291" s="4">
         <v>6</v>
@@ -18853,7 +18853,7 @@
         <v>14</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G292" s="4">
         <v>6</v>
@@ -18916,7 +18916,7 @@
         <v>14</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G293" s="4">
         <v>6</v>
@@ -18979,7 +18979,7 @@
         <v>14</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G294" s="4">
         <v>6</v>
@@ -19042,7 +19042,7 @@
         <v>14</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G295" s="4">
         <v>6</v>
@@ -19105,7 +19105,7 @@
         <v>14</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G296" s="4">
         <v>6</v>
@@ -19168,7 +19168,7 @@
         <v>14</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G297" s="4">
         <v>6</v>
@@ -19231,7 +19231,7 @@
         <v>14</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G298" s="4">
         <v>6</v>
@@ -19294,7 +19294,7 @@
         <v>14</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G299" s="4">
         <v>6</v>
@@ -19357,7 +19357,7 @@
         <v>14</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G300" s="4">
         <v>6</v>
@@ -19420,7 +19420,7 @@
         <v>14</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G301" s="4">
         <v>6</v>
@@ -19483,7 +19483,7 @@
         <v>14</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G302" s="4">
         <v>6</v>
@@ -19546,7 +19546,7 @@
         <v>14</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G303" s="4">
         <v>6</v>
@@ -19609,7 +19609,7 @@
         <v>14</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G304" s="4">
         <v>6</v>
@@ -19672,7 +19672,7 @@
         <v>14</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G305" s="4">
         <v>6</v>
@@ -19735,7 +19735,7 @@
         <v>14</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G306" s="4">
         <v>6</v>
@@ -19798,7 +19798,7 @@
         <v>14</v>
       </c>
       <c r="F307" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G307" s="4">
         <v>6</v>
@@ -19861,7 +19861,7 @@
         <v>14</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G308" s="4">
         <v>6</v>
@@ -19924,7 +19924,7 @@
         <v>14</v>
       </c>
       <c r="F309" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G309" s="4">
         <v>6</v>
@@ -19987,7 +19987,7 @@
         <v>14</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G310" s="4">
         <v>6</v>
@@ -20050,7 +20050,7 @@
         <v>14</v>
       </c>
       <c r="F311" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G311" s="4">
         <v>6</v>
@@ -20113,7 +20113,7 @@
         <v>14</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G312" s="4">
         <v>6</v>
@@ -20176,7 +20176,7 @@
         <v>14</v>
       </c>
       <c r="F313" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G313" s="4">
         <v>6</v>
@@ -20239,7 +20239,7 @@
         <v>14</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G314" s="4">
         <v>6</v>
@@ -20302,7 +20302,7 @@
         <v>14</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G315" s="4">
         <v>6</v>
@@ -20365,7 +20365,7 @@
         <v>14</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G316" s="4">
         <v>6</v>
@@ -20428,7 +20428,7 @@
         <v>14</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G317" s="4">
         <v>6</v>
@@ -20491,7 +20491,7 @@
         <v>14</v>
       </c>
       <c r="F318" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G318" s="4">
         <v>6</v>
@@ -20554,7 +20554,7 @@
         <v>14</v>
       </c>
       <c r="F319" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G319" s="4">
         <v>6</v>
@@ -20617,7 +20617,7 @@
         <v>14</v>
       </c>
       <c r="F320" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G320" s="4">
         <v>6</v>
@@ -20680,7 +20680,7 @@
         <v>14</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G321" s="4">
         <v>6</v>
@@ -20743,7 +20743,7 @@
         <v>14</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G322" s="4">
         <v>6</v>
@@ -20806,7 +20806,7 @@
         <v>14</v>
       </c>
       <c r="F323" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G323" s="4">
         <v>6</v>
@@ -20869,7 +20869,7 @@
         <v>14</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G324" s="4">
         <v>6</v>
@@ -20932,7 +20932,7 @@
         <v>14</v>
       </c>
       <c r="F325" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G325" s="4">
         <v>6</v>
@@ -20995,7 +20995,7 @@
         <v>14</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G326" s="4">
         <v>6</v>
@@ -21058,7 +21058,7 @@
         <v>14</v>
       </c>
       <c r="F327" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G327" s="4">
         <v>6</v>
@@ -21121,7 +21121,7 @@
         <v>14</v>
       </c>
       <c r="F328" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G328" s="4">
         <v>6</v>
@@ -21184,7 +21184,7 @@
         <v>14</v>
       </c>
       <c r="F329" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G329" s="4">
         <v>6</v>
@@ -21247,7 +21247,7 @@
         <v>14</v>
       </c>
       <c r="F330" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G330" s="4">
         <v>6</v>
@@ -21310,7 +21310,7 @@
         <v>14</v>
       </c>
       <c r="F331" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G331" s="4">
         <v>6</v>
@@ -21373,7 +21373,7 @@
         <v>14</v>
       </c>
       <c r="F332" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G332" s="4">
         <v>6</v>
@@ -21436,7 +21436,7 @@
         <v>14</v>
       </c>
       <c r="F333" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G333" s="4">
         <v>6</v>
@@ -21499,7 +21499,7 @@
         <v>14</v>
       </c>
       <c r="F334" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G334" s="4">
         <v>6</v>
@@ -21562,7 +21562,7 @@
         <v>14</v>
       </c>
       <c r="F335" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G335" s="4">
         <v>6</v>
@@ -21625,7 +21625,7 @@
         <v>14</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G336" s="4">
         <v>6</v>
@@ -21688,7 +21688,7 @@
         <v>14</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G337" s="4">
         <v>6</v>
@@ -21751,7 +21751,7 @@
         <v>14</v>
       </c>
       <c r="F338" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G338" s="4">
         <v>7</v>
@@ -21814,7 +21814,7 @@
         <v>14</v>
       </c>
       <c r="F339" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G339" s="4">
         <v>7</v>
@@ -21877,7 +21877,7 @@
         <v>14</v>
       </c>
       <c r="F340" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G340" s="4">
         <v>7</v>
@@ -21940,7 +21940,7 @@
         <v>14</v>
       </c>
       <c r="F341" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G341" s="4">
         <v>7</v>
@@ -22003,7 +22003,7 @@
         <v>14</v>
       </c>
       <c r="F342" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G342" s="4">
         <v>7</v>
@@ -22066,7 +22066,7 @@
         <v>14</v>
       </c>
       <c r="F343" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G343" s="4">
         <v>7</v>
@@ -22129,7 +22129,7 @@
         <v>14</v>
       </c>
       <c r="F344" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G344" s="4">
         <v>7</v>
@@ -22192,7 +22192,7 @@
         <v>14</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G345" s="4">
         <v>7</v>
@@ -22255,7 +22255,7 @@
         <v>14</v>
       </c>
       <c r="F346" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G346" s="4">
         <v>7</v>
@@ -22318,7 +22318,7 @@
         <v>14</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G347" s="4">
         <v>7</v>
@@ -22381,7 +22381,7 @@
         <v>14</v>
       </c>
       <c r="F348" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G348" s="4">
         <v>7</v>
@@ -22444,7 +22444,7 @@
         <v>14</v>
       </c>
       <c r="F349" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G349" s="4">
         <v>7</v>
@@ -22507,7 +22507,7 @@
         <v>14</v>
       </c>
       <c r="F350" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G350" s="4">
         <v>7</v>
@@ -22570,7 +22570,7 @@
         <v>14</v>
       </c>
       <c r="F351" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G351" s="4">
         <v>7</v>
@@ -22633,7 +22633,7 @@
         <v>14</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G352" s="4">
         <v>7</v>
@@ -22696,7 +22696,7 @@
         <v>14</v>
       </c>
       <c r="F353" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G353" s="4">
         <v>7</v>
@@ -22759,7 +22759,7 @@
         <v>14</v>
       </c>
       <c r="F354" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G354" s="4">
         <v>7</v>
@@ -22822,7 +22822,7 @@
         <v>14</v>
       </c>
       <c r="F355" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G355" s="4">
         <v>7</v>
@@ -22885,7 +22885,7 @@
         <v>14</v>
       </c>
       <c r="F356" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G356" s="4">
         <v>7</v>
@@ -22948,7 +22948,7 @@
         <v>14</v>
       </c>
       <c r="F357" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G357" s="4">
         <v>7</v>
@@ -23011,7 +23011,7 @@
         <v>14</v>
       </c>
       <c r="F358" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G358" s="4">
         <v>7</v>
@@ -23074,7 +23074,7 @@
         <v>14</v>
       </c>
       <c r="F359" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G359" s="4">
         <v>7</v>
@@ -23137,7 +23137,7 @@
         <v>14</v>
       </c>
       <c r="F360" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G360" s="4">
         <v>7</v>
@@ -23200,7 +23200,7 @@
         <v>14</v>
       </c>
       <c r="F361" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G361" s="4">
         <v>7</v>
@@ -23263,7 +23263,7 @@
         <v>14</v>
       </c>
       <c r="F362" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G362" s="4">
         <v>7</v>
@@ -23326,7 +23326,7 @@
         <v>14</v>
       </c>
       <c r="F363" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G363" s="4">
         <v>7</v>
@@ -23389,7 +23389,7 @@
         <v>14</v>
       </c>
       <c r="F364" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G364" s="4">
         <v>7</v>
@@ -23452,7 +23452,7 @@
         <v>14</v>
       </c>
       <c r="F365" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G365" s="4">
         <v>7</v>
@@ -23515,7 +23515,7 @@
         <v>14</v>
       </c>
       <c r="F366" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G366" s="4">
         <v>7</v>
@@ -23578,7 +23578,7 @@
         <v>14</v>
       </c>
       <c r="F367" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G367" s="4">
         <v>7</v>
@@ -23641,7 +23641,7 @@
         <v>14</v>
       </c>
       <c r="F368" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G368" s="4">
         <v>7</v>
@@ -23704,7 +23704,7 @@
         <v>14</v>
       </c>
       <c r="F369" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G369" s="4">
         <v>7</v>
@@ -23767,7 +23767,7 @@
         <v>14</v>
       </c>
       <c r="F370" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G370" s="4">
         <v>7</v>
@@ -23830,7 +23830,7 @@
         <v>14</v>
       </c>
       <c r="F371" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G371" s="4">
         <v>7</v>
@@ -23893,7 +23893,7 @@
         <v>14</v>
       </c>
       <c r="F372" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G372" s="4">
         <v>7</v>
@@ -23956,7 +23956,7 @@
         <v>14</v>
       </c>
       <c r="F373" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G373" s="4">
         <v>7</v>
@@ -24019,7 +24019,7 @@
         <v>14</v>
       </c>
       <c r="F374" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G374" s="4">
         <v>7</v>
@@ -24082,7 +24082,7 @@
         <v>14</v>
       </c>
       <c r="F375" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G375" s="4">
         <v>7</v>
@@ -24145,7 +24145,7 @@
         <v>14</v>
       </c>
       <c r="F376" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G376" s="4">
         <v>7</v>
@@ -24208,7 +24208,7 @@
         <v>14</v>
       </c>
       <c r="F377" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G377" s="4">
         <v>7</v>
@@ -24271,7 +24271,7 @@
         <v>14</v>
       </c>
       <c r="F378" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G378" s="4">
         <v>7</v>
@@ -24334,7 +24334,7 @@
         <v>14</v>
       </c>
       <c r="F379" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G379" s="4">
         <v>7</v>
@@ -24397,7 +24397,7 @@
         <v>14</v>
       </c>
       <c r="F380" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G380" s="4">
         <v>7</v>
@@ -24460,7 +24460,7 @@
         <v>14</v>
       </c>
       <c r="F381" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G381" s="4">
         <v>7</v>
@@ -24523,7 +24523,7 @@
         <v>14</v>
       </c>
       <c r="F382" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G382" s="4">
         <v>7</v>
@@ -24586,7 +24586,7 @@
         <v>14</v>
       </c>
       <c r="F383" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G383" s="4">
         <v>7</v>
@@ -24649,7 +24649,7 @@
         <v>14</v>
       </c>
       <c r="F384" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G384" s="4">
         <v>7</v>
@@ -24712,7 +24712,7 @@
         <v>14</v>
       </c>
       <c r="F385" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G385" s="4">
         <v>7</v>
@@ -24775,7 +24775,7 @@
         <v>14</v>
       </c>
       <c r="F386" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G386" s="4">
         <v>7</v>
@@ -24838,7 +24838,7 @@
         <v>14</v>
       </c>
       <c r="F387" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G387" s="4">
         <v>7</v>
@@ -24901,7 +24901,7 @@
         <v>14</v>
       </c>
       <c r="F388" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G388" s="4">
         <v>7</v>
@@ -24964,7 +24964,7 @@
         <v>14</v>
       </c>
       <c r="F389" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G389" s="4">
         <v>7</v>
@@ -25027,7 +25027,7 @@
         <v>14</v>
       </c>
       <c r="F390" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G390" s="4">
         <v>7</v>
@@ -25090,7 +25090,7 @@
         <v>14</v>
       </c>
       <c r="F391" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G391" s="4">
         <v>7</v>
@@ -25153,7 +25153,7 @@
         <v>14</v>
       </c>
       <c r="F392" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G392" s="4">
         <v>7</v>
@@ -25216,7 +25216,7 @@
         <v>14</v>
       </c>
       <c r="F393" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G393" s="4">
         <v>7</v>
@@ -25279,7 +25279,7 @@
         <v>14</v>
       </c>
       <c r="F394" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G394" s="4">
         <v>7</v>
@@ -25342,7 +25342,7 @@
         <v>14</v>
       </c>
       <c r="F395" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G395" s="4">
         <v>7</v>
@@ -25405,7 +25405,7 @@
         <v>14</v>
       </c>
       <c r="F396" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G396" s="4">
         <v>7</v>
@@ -25468,7 +25468,7 @@
         <v>14</v>
       </c>
       <c r="F397" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G397" s="4">
         <v>7</v>
@@ -25531,7 +25531,7 @@
         <v>14</v>
       </c>
       <c r="F398" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G398" s="4">
         <v>8</v>
@@ -25594,7 +25594,7 @@
         <v>14</v>
       </c>
       <c r="F399" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G399" s="4">
         <v>8</v>
@@ -25657,7 +25657,7 @@
         <v>14</v>
       </c>
       <c r="F400" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G400" s="4">
         <v>8</v>
@@ -25720,7 +25720,7 @@
         <v>14</v>
       </c>
       <c r="F401" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G401" s="4">
         <v>8</v>
@@ -25783,7 +25783,7 @@
         <v>14</v>
       </c>
       <c r="F402" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G402" s="4">
         <v>8</v>
@@ -25846,7 +25846,7 @@
         <v>14</v>
       </c>
       <c r="F403" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G403" s="4">
         <v>8</v>
@@ -25909,7 +25909,7 @@
         <v>14</v>
       </c>
       <c r="F404" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G404" s="4">
         <v>8</v>
@@ -25972,7 +25972,7 @@
         <v>14</v>
       </c>
       <c r="F405" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G405" s="4">
         <v>8</v>
@@ -26035,7 +26035,7 @@
         <v>14</v>
       </c>
       <c r="F406" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G406" s="4">
         <v>8</v>
@@ -26098,7 +26098,7 @@
         <v>14</v>
       </c>
       <c r="F407" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G407" s="4">
         <v>8</v>
@@ -26161,7 +26161,7 @@
         <v>14</v>
       </c>
       <c r="F408" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G408" s="4">
         <v>8</v>
@@ -26224,7 +26224,7 @@
         <v>14</v>
       </c>
       <c r="F409" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G409" s="4">
         <v>8</v>
@@ -26287,7 +26287,7 @@
         <v>14</v>
       </c>
       <c r="F410" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G410" s="4">
         <v>8</v>
@@ -26350,7 +26350,7 @@
         <v>14</v>
       </c>
       <c r="F411" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G411" s="4">
         <v>8</v>
@@ -26413,7 +26413,7 @@
         <v>14</v>
       </c>
       <c r="F412" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G412" s="4">
         <v>8</v>
@@ -26476,7 +26476,7 @@
         <v>14</v>
       </c>
       <c r="F413" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G413" s="4">
         <v>8</v>
@@ -26539,7 +26539,7 @@
         <v>14</v>
       </c>
       <c r="F414" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G414" s="4">
         <v>8</v>
@@ -26602,7 +26602,7 @@
         <v>14</v>
       </c>
       <c r="F415" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G415" s="4">
         <v>8</v>
@@ -26665,7 +26665,7 @@
         <v>14</v>
       </c>
       <c r="F416" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G416" s="4">
         <v>8</v>
@@ -26728,7 +26728,7 @@
         <v>14</v>
       </c>
       <c r="F417" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G417" s="4">
         <v>8</v>
@@ -26791,7 +26791,7 @@
         <v>14</v>
       </c>
       <c r="F418" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G418" s="4">
         <v>8</v>
@@ -26854,7 +26854,7 @@
         <v>14</v>
       </c>
       <c r="F419" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G419" s="4">
         <v>8</v>
@@ -26917,7 +26917,7 @@
         <v>14</v>
       </c>
       <c r="F420" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G420" s="4">
         <v>8</v>
@@ -26980,7 +26980,7 @@
         <v>14</v>
       </c>
       <c r="F421" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G421" s="4">
         <v>8</v>
@@ -27043,7 +27043,7 @@
         <v>14</v>
       </c>
       <c r="F422" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G422" s="4">
         <v>8</v>
@@ -27106,7 +27106,7 @@
         <v>14</v>
       </c>
       <c r="F423" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G423" s="4">
         <v>8</v>
@@ -27169,7 +27169,7 @@
         <v>14</v>
       </c>
       <c r="F424" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G424" s="4">
         <v>8</v>
@@ -27232,7 +27232,7 @@
         <v>14</v>
       </c>
       <c r="F425" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G425" s="4">
         <v>8</v>
@@ -27295,7 +27295,7 @@
         <v>14</v>
       </c>
       <c r="F426" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G426" s="4">
         <v>8</v>
@@ -27358,7 +27358,7 @@
         <v>14</v>
       </c>
       <c r="F427" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G427" s="4">
         <v>8</v>
@@ -27421,7 +27421,7 @@
         <v>14</v>
       </c>
       <c r="F428" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G428" s="4">
         <v>8</v>
@@ -27484,7 +27484,7 @@
         <v>14</v>
       </c>
       <c r="F429" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G429" s="4">
         <v>8</v>
@@ -27547,7 +27547,7 @@
         <v>14</v>
       </c>
       <c r="F430" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G430" s="4">
         <v>8</v>
@@ -27610,7 +27610,7 @@
         <v>14</v>
       </c>
       <c r="F431" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G431" s="4">
         <v>8</v>
@@ -27673,7 +27673,7 @@
         <v>14</v>
       </c>
       <c r="F432" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G432" s="4">
         <v>8</v>
@@ -27736,7 +27736,7 @@
         <v>14</v>
       </c>
       <c r="F433" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G433" s="4">
         <v>8</v>
@@ -27799,7 +27799,7 @@
         <v>14</v>
       </c>
       <c r="F434" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G434" s="4">
         <v>8</v>
@@ -27862,7 +27862,7 @@
         <v>14</v>
       </c>
       <c r="F435" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G435" s="4">
         <v>8</v>
@@ -27925,7 +27925,7 @@
         <v>14</v>
       </c>
       <c r="F436" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G436" s="4">
         <v>8</v>
@@ -27988,7 +27988,7 @@
         <v>14</v>
       </c>
       <c r="F437" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G437" s="4">
         <v>8</v>
@@ -28051,7 +28051,7 @@
         <v>14</v>
       </c>
       <c r="F438" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G438" s="4">
         <v>8</v>
@@ -28114,7 +28114,7 @@
         <v>14</v>
       </c>
       <c r="F439" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G439" s="4">
         <v>8</v>
@@ -28177,7 +28177,7 @@
         <v>14</v>
       </c>
       <c r="F440" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G440" s="4">
         <v>8</v>
@@ -28240,7 +28240,7 @@
         <v>14</v>
       </c>
       <c r="F441" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G441" s="4">
         <v>8</v>
@@ -28303,7 +28303,7 @@
         <v>14</v>
       </c>
       <c r="F442" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G442" s="4">
         <v>8</v>
@@ -28366,7 +28366,7 @@
         <v>14</v>
       </c>
       <c r="F443" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G443" s="4">
         <v>8</v>
@@ -28429,7 +28429,7 @@
         <v>14</v>
       </c>
       <c r="F444" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G444" s="4">
         <v>8</v>
@@ -28492,7 +28492,7 @@
         <v>14</v>
       </c>
       <c r="F445" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G445" s="4">
         <v>8</v>
@@ -28555,7 +28555,7 @@
         <v>14</v>
       </c>
       <c r="F446" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G446" s="4">
         <v>8</v>
@@ -28618,7 +28618,7 @@
         <v>14</v>
       </c>
       <c r="F447" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G447" s="4">
         <v>8</v>
@@ -28681,7 +28681,7 @@
         <v>14</v>
       </c>
       <c r="F448" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G448" s="4">
         <v>8</v>
@@ -28744,7 +28744,7 @@
         <v>14</v>
       </c>
       <c r="F449" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G449" s="4">
         <v>8</v>
@@ -28807,7 +28807,7 @@
         <v>14</v>
       </c>
       <c r="F450" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G450" s="4">
         <v>8</v>
@@ -28870,7 +28870,7 @@
         <v>14</v>
       </c>
       <c r="F451" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G451" s="4">
         <v>8</v>
@@ -28933,7 +28933,7 @@
         <v>14</v>
       </c>
       <c r="F452" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G452" s="4">
         <v>8</v>
@@ -28996,7 +28996,7 @@
         <v>14</v>
       </c>
       <c r="F453" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G453" s="4">
         <v>8</v>
@@ -29059,7 +29059,7 @@
         <v>14</v>
       </c>
       <c r="F454" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G454" s="4">
         <v>8</v>
@@ -29122,7 +29122,7 @@
         <v>14</v>
       </c>
       <c r="F455" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G455" s="4">
         <v>8</v>
@@ -29185,7 +29185,7 @@
         <v>14</v>
       </c>
       <c r="F456" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G456" s="4">
         <v>8</v>
@@ -29248,7 +29248,7 @@
         <v>14</v>
       </c>
       <c r="F457" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G457" s="4">
         <v>9</v>
@@ -29311,7 +29311,7 @@
         <v>14</v>
       </c>
       <c r="F458" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G458" s="4">
         <v>9</v>
@@ -29374,7 +29374,7 @@
         <v>14</v>
       </c>
       <c r="F459" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G459" s="4">
         <v>9</v>
@@ -29437,7 +29437,7 @@
         <v>14</v>
       </c>
       <c r="F460" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G460" s="4">
         <v>9</v>
@@ -29500,7 +29500,7 @@
         <v>14</v>
       </c>
       <c r="F461" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G461" s="4">
         <v>9</v>
@@ -29563,7 +29563,7 @@
         <v>14</v>
       </c>
       <c r="F462" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G462" s="4">
         <v>9</v>
@@ -29626,7 +29626,7 @@
         <v>14</v>
       </c>
       <c r="F463" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G463" s="4">
         <v>9</v>
@@ -29689,7 +29689,7 @@
         <v>14</v>
       </c>
       <c r="F464" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G464" s="4">
         <v>9</v>
@@ -29752,7 +29752,7 @@
         <v>14</v>
       </c>
       <c r="F465" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G465" s="4">
         <v>9</v>
@@ -29815,7 +29815,7 @@
         <v>14</v>
       </c>
       <c r="F466" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G466" s="4">
         <v>9</v>
@@ -29878,7 +29878,7 @@
         <v>14</v>
       </c>
       <c r="F467" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G467" s="4">
         <v>9</v>
@@ -29941,7 +29941,7 @@
         <v>14</v>
       </c>
       <c r="F468" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G468" s="4">
         <v>9</v>
@@ -30004,7 +30004,7 @@
         <v>14</v>
       </c>
       <c r="F469" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G469" s="4">
         <v>9</v>
@@ -30067,7 +30067,7 @@
         <v>14</v>
       </c>
       <c r="F470" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G470" s="4">
         <v>9</v>
@@ -30130,7 +30130,7 @@
         <v>14</v>
       </c>
       <c r="F471" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G471" s="4">
         <v>9</v>
@@ -30193,7 +30193,7 @@
         <v>14</v>
       </c>
       <c r="F472" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G472" s="4">
         <v>9</v>
@@ -30256,7 +30256,7 @@
         <v>14</v>
       </c>
       <c r="F473" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G473" s="4">
         <v>9</v>
@@ -30319,7 +30319,7 @@
         <v>14</v>
       </c>
       <c r="F474" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G474" s="4">
         <v>9</v>
@@ -30382,7 +30382,7 @@
         <v>14</v>
       </c>
       <c r="F475" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G475" s="4">
         <v>9</v>
@@ -30445,7 +30445,7 @@
         <v>14</v>
       </c>
       <c r="F476" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G476" s="4">
         <v>9</v>
@@ -30508,7 +30508,7 @@
         <v>14</v>
       </c>
       <c r="F477" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G477" s="4">
         <v>9</v>
@@ -30571,7 +30571,7 @@
         <v>14</v>
       </c>
       <c r="F478" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G478" s="4">
         <v>9</v>
@@ -30634,7 +30634,7 @@
         <v>14</v>
       </c>
       <c r="F479" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G479" s="4">
         <v>9</v>
@@ -30697,7 +30697,7 @@
         <v>14</v>
       </c>
       <c r="F480" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G480" s="4">
         <v>9</v>
@@ -30760,7 +30760,7 @@
         <v>14</v>
       </c>
       <c r="F481" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G481" s="4">
         <v>9</v>
@@ -30823,7 +30823,7 @@
         <v>14</v>
       </c>
       <c r="F482" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G482" s="4">
         <v>9</v>
@@ -30886,7 +30886,7 @@
         <v>14</v>
       </c>
       <c r="F483" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G483" s="4">
         <v>9</v>
@@ -30949,7 +30949,7 @@
         <v>14</v>
       </c>
       <c r="F484" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G484" s="4">
         <v>9</v>
@@ -31012,7 +31012,7 @@
         <v>14</v>
       </c>
       <c r="F485" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G485" s="4">
         <v>9</v>
@@ -31075,7 +31075,7 @@
         <v>14</v>
       </c>
       <c r="F486" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G486" s="4">
         <v>9</v>
@@ -31138,7 +31138,7 @@
         <v>14</v>
       </c>
       <c r="F487" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G487" s="4">
         <v>9</v>
@@ -31201,7 +31201,7 @@
         <v>14</v>
       </c>
       <c r="F488" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G488" s="4">
         <v>9</v>
@@ -31264,7 +31264,7 @@
         <v>14</v>
       </c>
       <c r="F489" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G489" s="4">
         <v>9</v>
@@ -31327,7 +31327,7 @@
         <v>14</v>
       </c>
       <c r="F490" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G490" s="4">
         <v>9</v>
@@ -31390,7 +31390,7 @@
         <v>14</v>
       </c>
       <c r="F491" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G491" s="4">
         <v>9</v>
@@ -31453,7 +31453,7 @@
         <v>14</v>
       </c>
       <c r="F492" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G492" s="4">
         <v>9</v>
@@ -31516,7 +31516,7 @@
         <v>14</v>
       </c>
       <c r="F493" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G493" s="4">
         <v>9</v>
@@ -31579,7 +31579,7 @@
         <v>14</v>
       </c>
       <c r="F494" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G494" s="4">
         <v>9</v>
@@ -31642,7 +31642,7 @@
         <v>14</v>
       </c>
       <c r="F495" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G495" s="4">
         <v>9</v>
@@ -31705,7 +31705,7 @@
         <v>14</v>
       </c>
       <c r="F496" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G496" s="4">
         <v>9</v>
@@ -31768,7 +31768,7 @@
         <v>14</v>
       </c>
       <c r="F497" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G497" s="4">
         <v>9</v>
@@ -31831,7 +31831,7 @@
         <v>14</v>
       </c>
       <c r="F498" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G498" s="4">
         <v>9</v>
@@ -31894,7 +31894,7 @@
         <v>14</v>
       </c>
       <c r="F499" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G499" s="4">
         <v>9</v>
@@ -31957,7 +31957,7 @@
         <v>14</v>
       </c>
       <c r="F500" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G500" s="4">
         <v>9</v>
@@ -32020,7 +32020,7 @@
         <v>14</v>
       </c>
       <c r="F501" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G501" s="4">
         <v>9</v>
@@ -32083,7 +32083,7 @@
         <v>14</v>
       </c>
       <c r="F502" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G502" s="4">
         <v>9</v>
@@ -32146,7 +32146,7 @@
         <v>14</v>
       </c>
       <c r="F503" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G503" s="4">
         <v>9</v>
@@ -32209,7 +32209,7 @@
         <v>14</v>
       </c>
       <c r="F504" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G504" s="4">
         <v>9</v>
@@ -32272,7 +32272,7 @@
         <v>14</v>
       </c>
       <c r="F505" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G505" s="4">
         <v>9</v>
@@ -32335,7 +32335,7 @@
         <v>14</v>
       </c>
       <c r="F506" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G506" s="4">
         <v>9</v>
@@ -32398,7 +32398,7 @@
         <v>14</v>
       </c>
       <c r="F507" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G507" s="4">
         <v>9</v>
@@ -32461,7 +32461,7 @@
         <v>14</v>
       </c>
       <c r="F508" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G508" s="4">
         <v>9</v>
@@ -32524,7 +32524,7 @@
         <v>14</v>
       </c>
       <c r="F509" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G509" s="4">
         <v>9</v>
@@ -32587,7 +32587,7 @@
         <v>14</v>
       </c>
       <c r="F510" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G510" s="4">
         <v>9</v>
@@ -32650,7 +32650,7 @@
         <v>14</v>
       </c>
       <c r="F511" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G511" s="4">
         <v>9</v>
@@ -32713,7 +32713,7 @@
         <v>14</v>
       </c>
       <c r="F512" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G512" s="4">
         <v>9</v>
@@ -32776,7 +32776,7 @@
         <v>14</v>
       </c>
       <c r="F513" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G513" s="4">
         <v>9</v>
@@ -32839,7 +32839,7 @@
         <v>14</v>
       </c>
       <c r="F514" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G514" s="4">
         <v>9</v>
@@ -32902,7 +32902,7 @@
         <v>14</v>
       </c>
       <c r="F515" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G515" s="4">
         <v>9</v>
@@ -32965,7 +32965,7 @@
         <v>14</v>
       </c>
       <c r="F516" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G516" s="4">
         <v>9</v>
@@ -33028,7 +33028,7 @@
         <v>14</v>
       </c>
       <c r="F517" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G517" s="4">
         <v>9</v>
@@ -33091,7 +33091,7 @@
         <v>14</v>
       </c>
       <c r="F518" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G518" s="4">
         <v>10</v>
@@ -33154,7 +33154,7 @@
         <v>14</v>
       </c>
       <c r="F519" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G519" s="4">
         <v>10</v>
@@ -33217,7 +33217,7 @@
         <v>14</v>
       </c>
       <c r="F520" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G520" s="4">
         <v>10</v>
@@ -33280,7 +33280,7 @@
         <v>14</v>
       </c>
       <c r="F521" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G521" s="4">
         <v>10</v>
@@ -33343,7 +33343,7 @@
         <v>14</v>
       </c>
       <c r="F522" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G522" s="4">
         <v>10</v>
@@ -33406,7 +33406,7 @@
         <v>14</v>
       </c>
       <c r="F523" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G523" s="4">
         <v>10</v>
@@ -33469,7 +33469,7 @@
         <v>14</v>
       </c>
       <c r="F524" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G524" s="4">
         <v>10</v>
@@ -33532,7 +33532,7 @@
         <v>14</v>
       </c>
       <c r="F525" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G525" s="4">
         <v>10</v>
@@ -33595,7 +33595,7 @@
         <v>14</v>
       </c>
       <c r="F526" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G526" s="4">
         <v>10</v>
@@ -33658,7 +33658,7 @@
         <v>14</v>
       </c>
       <c r="F527" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G527" s="4">
         <v>10</v>
@@ -33721,7 +33721,7 @@
         <v>14</v>
       </c>
       <c r="F528" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G528" s="4">
         <v>10</v>
@@ -33784,7 +33784,7 @@
         <v>14</v>
       </c>
       <c r="F529" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G529" s="4">
         <v>10</v>
@@ -33847,7 +33847,7 @@
         <v>14</v>
       </c>
       <c r="F530" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G530" s="4">
         <v>10</v>
@@ -33910,7 +33910,7 @@
         <v>14</v>
       </c>
       <c r="F531" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G531" s="4">
         <v>10</v>
@@ -33973,7 +33973,7 @@
         <v>14</v>
       </c>
       <c r="F532" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G532" s="4">
         <v>10</v>
@@ -34036,7 +34036,7 @@
         <v>14</v>
       </c>
       <c r="F533" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G533" s="4">
         <v>10</v>
@@ -34099,7 +34099,7 @@
         <v>14</v>
       </c>
       <c r="F534" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G534" s="4">
         <v>10</v>
@@ -34162,7 +34162,7 @@
         <v>14</v>
       </c>
       <c r="F535" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G535" s="4">
         <v>10</v>
@@ -34225,7 +34225,7 @@
         <v>14</v>
       </c>
       <c r="F536" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G536" s="4">
         <v>10</v>
@@ -34288,7 +34288,7 @@
         <v>14</v>
       </c>
       <c r="F537" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G537" s="4">
         <v>10</v>
@@ -34351,7 +34351,7 @@
         <v>14</v>
       </c>
       <c r="F538" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G538" s="4">
         <v>10</v>
@@ -34414,7 +34414,7 @@
         <v>14</v>
       </c>
       <c r="F539" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G539" s="4">
         <v>10</v>
@@ -34477,7 +34477,7 @@
         <v>14</v>
       </c>
       <c r="F540" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G540" s="4">
         <v>10</v>
@@ -34540,7 +34540,7 @@
         <v>14</v>
       </c>
       <c r="F541" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G541" s="4">
         <v>10</v>
@@ -34603,7 +34603,7 @@
         <v>14</v>
       </c>
       <c r="F542" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G542" s="4">
         <v>10</v>
@@ -34666,7 +34666,7 @@
         <v>14</v>
       </c>
       <c r="F543" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G543" s="4">
         <v>10</v>
@@ -34729,7 +34729,7 @@
         <v>14</v>
       </c>
       <c r="F544" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G544" s="4">
         <v>10</v>
@@ -34792,7 +34792,7 @@
         <v>14</v>
       </c>
       <c r="F545" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G545" s="4">
         <v>10</v>
@@ -34855,7 +34855,7 @@
         <v>14</v>
       </c>
       <c r="F546" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G546" s="4">
         <v>10</v>
@@ -34918,7 +34918,7 @@
         <v>14</v>
       </c>
       <c r="F547" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G547" s="4">
         <v>10</v>
@@ -34981,7 +34981,7 @@
         <v>14</v>
       </c>
       <c r="F548" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G548" s="4">
         <v>10</v>
@@ -35044,7 +35044,7 @@
         <v>14</v>
       </c>
       <c r="F549" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G549" s="4">
         <v>10</v>
@@ -35107,7 +35107,7 @@
         <v>14</v>
       </c>
       <c r="F550" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G550" s="4">
         <v>10</v>
@@ -35170,7 +35170,7 @@
         <v>14</v>
       </c>
       <c r="F551" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G551" s="4">
         <v>10</v>
@@ -35233,7 +35233,7 @@
         <v>14</v>
       </c>
       <c r="F552" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G552" s="4">
         <v>10</v>
@@ -35296,7 +35296,7 @@
         <v>14</v>
       </c>
       <c r="F553" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G553" s="4">
         <v>10</v>
@@ -35359,7 +35359,7 @@
         <v>14</v>
       </c>
       <c r="F554" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G554" s="4">
         <v>10</v>
@@ -35422,7 +35422,7 @@
         <v>14</v>
       </c>
       <c r="F555" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G555" s="4">
         <v>10</v>
@@ -35485,7 +35485,7 @@
         <v>14</v>
       </c>
       <c r="F556" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G556" s="4">
         <v>10</v>
@@ -35548,7 +35548,7 @@
         <v>14</v>
       </c>
       <c r="F557" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G557" s="4">
         <v>10</v>
@@ -35611,7 +35611,7 @@
         <v>14</v>
       </c>
       <c r="F558" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G558" s="4">
         <v>10</v>
@@ -35674,7 +35674,7 @@
         <v>14</v>
       </c>
       <c r="F559" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G559" s="4">
         <v>10</v>
@@ -35737,7 +35737,7 @@
         <v>14</v>
       </c>
       <c r="F560" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G560" s="4">
         <v>10</v>
@@ -35800,7 +35800,7 @@
         <v>14</v>
       </c>
       <c r="F561" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G561" s="4">
         <v>10</v>
@@ -35863,7 +35863,7 @@
         <v>14</v>
       </c>
       <c r="F562" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G562" s="4">
         <v>10</v>
@@ -35926,7 +35926,7 @@
         <v>14</v>
       </c>
       <c r="F563" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G563" s="4">
         <v>10</v>
@@ -35989,7 +35989,7 @@
         <v>14</v>
       </c>
       <c r="F564" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G564" s="4">
         <v>10</v>
@@ -36052,7 +36052,7 @@
         <v>14</v>
       </c>
       <c r="F565" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G565" s="4">
         <v>10</v>
@@ -36115,7 +36115,7 @@
         <v>14</v>
       </c>
       <c r="F566" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G566" s="4">
         <v>10</v>
@@ -36178,7 +36178,7 @@
         <v>14</v>
       </c>
       <c r="F567" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G567" s="4">
         <v>10</v>
@@ -36241,7 +36241,7 @@
         <v>14</v>
       </c>
       <c r="F568" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G568" s="4">
         <v>10</v>
@@ -36304,7 +36304,7 @@
         <v>14</v>
       </c>
       <c r="F569" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G569" s="4">
         <v>10</v>
@@ -36367,7 +36367,7 @@
         <v>14</v>
       </c>
       <c r="F570" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G570" s="4">
         <v>10</v>
@@ -36430,7 +36430,7 @@
         <v>14</v>
       </c>
       <c r="F571" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G571" s="4">
         <v>10</v>
@@ -36493,7 +36493,7 @@
         <v>14</v>
       </c>
       <c r="F572" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G572" s="4">
         <v>10</v>
@@ -36556,7 +36556,7 @@
         <v>14</v>
       </c>
       <c r="F573" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G573" s="4">
         <v>10</v>
@@ -36619,7 +36619,7 @@
         <v>14</v>
       </c>
       <c r="F574" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G574" s="4">
         <v>10</v>
@@ -36682,7 +36682,7 @@
         <v>14</v>
       </c>
       <c r="F575" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G575" s="4">
         <v>10</v>
@@ -36745,7 +36745,7 @@
         <v>14</v>
       </c>
       <c r="F576" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G576" s="4">
         <v>10</v>
@@ -36808,7 +36808,7 @@
         <v>14</v>
       </c>
       <c r="F577" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G577" s="4">
         <v>10</v>
@@ -36871,7 +36871,7 @@
         <v>14</v>
       </c>
       <c r="F578" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G578" s="4">
         <v>10</v>
@@ -36934,7 +36934,7 @@
         <v>14</v>
       </c>
       <c r="F579" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G579" s="4">
         <v>11</v>
@@ -36997,7 +36997,7 @@
         <v>14</v>
       </c>
       <c r="F580" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G580" s="4">
         <v>11</v>
@@ -37060,7 +37060,7 @@
         <v>14</v>
       </c>
       <c r="F581" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G581" s="4">
         <v>11</v>
@@ -37123,7 +37123,7 @@
         <v>14</v>
       </c>
       <c r="F582" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G582" s="4">
         <v>11</v>
@@ -37186,7 +37186,7 @@
         <v>14</v>
       </c>
       <c r="F583" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G583" s="4">
         <v>11</v>
@@ -37249,7 +37249,7 @@
         <v>14</v>
       </c>
       <c r="F584" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G584" s="4">
         <v>11</v>
@@ -37312,7 +37312,7 @@
         <v>14</v>
       </c>
       <c r="F585" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G585" s="4">
         <v>11</v>
@@ -37375,7 +37375,7 @@
         <v>14</v>
       </c>
       <c r="F586" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G586" s="4">
         <v>11</v>
@@ -37438,7 +37438,7 @@
         <v>14</v>
       </c>
       <c r="F587" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G587" s="4">
         <v>11</v>
@@ -37501,7 +37501,7 @@
         <v>14</v>
       </c>
       <c r="F588" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G588" s="4">
         <v>11</v>
@@ -37564,7 +37564,7 @@
         <v>14</v>
       </c>
       <c r="F589" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G589" s="4">
         <v>11</v>
@@ -37627,7 +37627,7 @@
         <v>14</v>
       </c>
       <c r="F590" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G590" s="4">
         <v>11</v>
@@ -37690,7 +37690,7 @@
         <v>14</v>
       </c>
       <c r="F591" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G591" s="4">
         <v>11</v>
@@ -37753,7 +37753,7 @@
         <v>14</v>
       </c>
       <c r="F592" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G592" s="4">
         <v>11</v>
@@ -37816,7 +37816,7 @@
         <v>14</v>
       </c>
       <c r="F593" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G593" s="4">
         <v>11</v>
@@ -37879,7 +37879,7 @@
         <v>14</v>
       </c>
       <c r="F594" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G594" s="4">
         <v>11</v>
@@ -37942,7 +37942,7 @@
         <v>14</v>
       </c>
       <c r="F595" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G595" s="4">
         <v>11</v>
@@ -38005,7 +38005,7 @@
         <v>14</v>
       </c>
       <c r="F596" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G596" s="4">
         <v>11</v>
@@ -38068,7 +38068,7 @@
         <v>14</v>
       </c>
       <c r="F597" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G597" s="4">
         <v>11</v>
@@ -38131,7 +38131,7 @@
         <v>14</v>
       </c>
       <c r="F598" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G598" s="4">
         <v>11</v>
@@ -38194,7 +38194,7 @@
         <v>14</v>
       </c>
       <c r="F599" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G599" s="4">
         <v>11</v>
@@ -38257,7 +38257,7 @@
         <v>14</v>
       </c>
       <c r="F600" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G600" s="4">
         <v>11</v>
@@ -38320,7 +38320,7 @@
         <v>14</v>
       </c>
       <c r="F601" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G601" s="4">
         <v>11</v>
@@ -38383,7 +38383,7 @@
         <v>14</v>
       </c>
       <c r="F602" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G602" s="4">
         <v>11</v>
@@ -38446,7 +38446,7 @@
         <v>14</v>
       </c>
       <c r="F603" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G603" s="4">
         <v>11</v>
@@ -38509,7 +38509,7 @@
         <v>14</v>
       </c>
       <c r="F604" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G604" s="4">
         <v>11</v>
@@ -38572,7 +38572,7 @@
         <v>14</v>
       </c>
       <c r="F605" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G605" s="4">
         <v>11</v>
@@ -38635,7 +38635,7 @@
         <v>14</v>
       </c>
       <c r="F606" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G606" s="4">
         <v>11</v>
@@ -38698,7 +38698,7 @@
         <v>14</v>
       </c>
       <c r="F607" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G607" s="4">
         <v>11</v>
@@ -38761,7 +38761,7 @@
         <v>14</v>
       </c>
       <c r="F608" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G608" s="4">
         <v>11</v>
@@ -38824,7 +38824,7 @@
         <v>14</v>
       </c>
       <c r="F609" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G609" s="4">
         <v>11</v>
@@ -38887,7 +38887,7 @@
         <v>14</v>
       </c>
       <c r="F610" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G610" s="4">
         <v>11</v>
@@ -38950,7 +38950,7 @@
         <v>14</v>
       </c>
       <c r="F611" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G611" s="4">
         <v>11</v>
@@ -39013,7 +39013,7 @@
         <v>14</v>
       </c>
       <c r="F612" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G612" s="4">
         <v>11</v>
@@ -39076,7 +39076,7 @@
         <v>14</v>
       </c>
       <c r="F613" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G613" s="4">
         <v>11</v>
@@ -39139,7 +39139,7 @@
         <v>14</v>
       </c>
       <c r="F614" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G614" s="4">
         <v>11</v>
@@ -39202,7 +39202,7 @@
         <v>14</v>
       </c>
       <c r="F615" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G615" s="4">
         <v>11</v>
@@ -39265,7 +39265,7 @@
         <v>14</v>
       </c>
       <c r="F616" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G616" s="4">
         <v>11</v>
@@ -39328,7 +39328,7 @@
         <v>14</v>
       </c>
       <c r="F617" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G617" s="4">
         <v>11</v>
@@ -39391,7 +39391,7 @@
         <v>14</v>
       </c>
       <c r="F618" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G618" s="4">
         <v>11</v>
@@ -39454,7 +39454,7 @@
         <v>14</v>
       </c>
       <c r="F619" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G619" s="4">
         <v>11</v>
@@ -39517,7 +39517,7 @@
         <v>14</v>
       </c>
       <c r="F620" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G620" s="4">
         <v>11</v>
@@ -39580,7 +39580,7 @@
         <v>14</v>
       </c>
       <c r="F621" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G621" s="4">
         <v>11</v>
@@ -39643,7 +39643,7 @@
         <v>14</v>
       </c>
       <c r="F622" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G622" s="4">
         <v>11</v>
@@ -39706,7 +39706,7 @@
         <v>14</v>
       </c>
       <c r="F623" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G623" s="4">
         <v>11</v>
@@ -39769,7 +39769,7 @@
         <v>14</v>
       </c>
       <c r="F624" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G624" s="4">
         <v>11</v>
@@ -39832,7 +39832,7 @@
         <v>14</v>
       </c>
       <c r="F625" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G625" s="4">
         <v>11</v>
@@ -39895,7 +39895,7 @@
         <v>14</v>
       </c>
       <c r="F626" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G626" s="4">
         <v>11</v>
@@ -39958,7 +39958,7 @@
         <v>14</v>
       </c>
       <c r="F627" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G627" s="4">
         <v>11</v>
@@ -40021,7 +40021,7 @@
         <v>14</v>
       </c>
       <c r="F628" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G628" s="4">
         <v>11</v>
@@ -40084,7 +40084,7 @@
         <v>14</v>
       </c>
       <c r="F629" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G629" s="4">
         <v>11</v>
@@ -40147,7 +40147,7 @@
         <v>14</v>
       </c>
       <c r="F630" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G630" s="4">
         <v>11</v>
@@ -40210,7 +40210,7 @@
         <v>14</v>
       </c>
       <c r="F631" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G631" s="4">
         <v>11</v>
@@ -40273,7 +40273,7 @@
         <v>14</v>
       </c>
       <c r="F632" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G632" s="4">
         <v>11</v>
@@ -40336,7 +40336,7 @@
         <v>14</v>
       </c>
       <c r="F633" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G633" s="4">
         <v>11</v>
@@ -40399,7 +40399,7 @@
         <v>14</v>
       </c>
       <c r="F634" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G634" s="4">
         <v>11</v>
@@ -40462,7 +40462,7 @@
         <v>14</v>
       </c>
       <c r="F635" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G635" s="4">
         <v>11</v>
@@ -40525,7 +40525,7 @@
         <v>14</v>
       </c>
       <c r="F636" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G636" s="4">
         <v>11</v>
@@ -40588,7 +40588,7 @@
         <v>14</v>
       </c>
       <c r="F637" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G637" s="4">
         <v>11</v>
@@ -40651,7 +40651,7 @@
         <v>14</v>
       </c>
       <c r="F638" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G638" s="4">
         <v>11</v>
@@ -40714,7 +40714,7 @@
         <v>14</v>
       </c>
       <c r="F639" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G639" s="4">
         <v>12</v>
@@ -40777,7 +40777,7 @@
         <v>14</v>
       </c>
       <c r="F640" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G640" s="4">
         <v>12</v>
@@ -40840,7 +40840,7 @@
         <v>14</v>
       </c>
       <c r="F641" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G641" s="4">
         <v>12</v>
@@ -40903,7 +40903,7 @@
         <v>14</v>
       </c>
       <c r="F642" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G642" s="4">
         <v>12</v>
@@ -40966,7 +40966,7 @@
         <v>14</v>
       </c>
       <c r="F643" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G643" s="4">
         <v>12</v>
@@ -41029,7 +41029,7 @@
         <v>14</v>
       </c>
       <c r="F644" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G644" s="4">
         <v>12</v>
@@ -41092,7 +41092,7 @@
         <v>14</v>
       </c>
       <c r="F645" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G645" s="4">
         <v>12</v>
@@ -41155,7 +41155,7 @@
         <v>14</v>
       </c>
       <c r="F646" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G646" s="4">
         <v>12</v>
@@ -41218,7 +41218,7 @@
         <v>14</v>
       </c>
       <c r="F647" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G647" s="4">
         <v>12</v>
@@ -41281,7 +41281,7 @@
         <v>14</v>
       </c>
       <c r="F648" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G648" s="4">
         <v>12</v>
@@ -41344,7 +41344,7 @@
         <v>14</v>
       </c>
       <c r="F649" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G649" s="4">
         <v>12</v>
@@ -41407,7 +41407,7 @@
         <v>14</v>
       </c>
       <c r="F650" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G650" s="4">
         <v>12</v>
@@ -41470,7 +41470,7 @@
         <v>14</v>
       </c>
       <c r="F651" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G651" s="4">
         <v>12</v>
@@ -41533,7 +41533,7 @@
         <v>14</v>
       </c>
       <c r="F652" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G652" s="4">
         <v>12</v>
@@ -41596,7 +41596,7 @@
         <v>14</v>
       </c>
       <c r="F653" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G653" s="4">
         <v>12</v>
@@ -41659,7 +41659,7 @@
         <v>14</v>
       </c>
       <c r="F654" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G654" s="4">
         <v>12</v>
@@ -41722,7 +41722,7 @@
         <v>14</v>
       </c>
       <c r="F655" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G655" s="4">
         <v>12</v>
@@ -41785,7 +41785,7 @@
         <v>14</v>
       </c>
       <c r="F656" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G656" s="4">
         <v>12</v>
@@ -41848,7 +41848,7 @@
         <v>14</v>
       </c>
       <c r="F657" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G657" s="4">
         <v>12</v>
@@ -41911,7 +41911,7 @@
         <v>14</v>
       </c>
       <c r="F658" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G658" s="4">
         <v>12</v>
@@ -41974,7 +41974,7 @@
         <v>14</v>
       </c>
       <c r="F659" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G659" s="4">
         <v>12</v>
@@ -42037,7 +42037,7 @@
         <v>14</v>
       </c>
       <c r="F660" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G660" s="4">
         <v>12</v>
@@ -42100,7 +42100,7 @@
         <v>14</v>
       </c>
       <c r="F661" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G661" s="4">
         <v>12</v>
@@ -42163,7 +42163,7 @@
         <v>14</v>
       </c>
       <c r="F662" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G662" s="4">
         <v>12</v>
@@ -42226,7 +42226,7 @@
         <v>14</v>
       </c>
       <c r="F663" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G663" s="4">
         <v>12</v>
@@ -42289,7 +42289,7 @@
         <v>14</v>
       </c>
       <c r="F664" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G664" s="4">
         <v>12</v>
@@ -42352,7 +42352,7 @@
         <v>14</v>
       </c>
       <c r="F665" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G665" s="4">
         <v>12</v>
@@ -42415,7 +42415,7 @@
         <v>14</v>
       </c>
       <c r="F666" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G666" s="4">
         <v>12</v>
@@ -42478,7 +42478,7 @@
         <v>14</v>
       </c>
       <c r="F667" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G667" s="4">
         <v>12</v>
@@ -42541,7 +42541,7 @@
         <v>14</v>
       </c>
       <c r="F668" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G668" s="4">
         <v>12</v>
@@ -42604,7 +42604,7 @@
         <v>14</v>
       </c>
       <c r="F669" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G669" s="4">
         <v>12</v>
@@ -42667,7 +42667,7 @@
         <v>14</v>
       </c>
       <c r="F670" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G670" s="4">
         <v>12</v>
@@ -42730,7 +42730,7 @@
         <v>14</v>
       </c>
       <c r="F671" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G671" s="4">
         <v>12</v>
@@ -42793,7 +42793,7 @@
         <v>14</v>
       </c>
       <c r="F672" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G672" s="4">
         <v>12</v>
@@ -42856,7 +42856,7 @@
         <v>14</v>
       </c>
       <c r="F673" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G673" s="4">
         <v>12</v>
@@ -42919,7 +42919,7 @@
         <v>14</v>
       </c>
       <c r="F674" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G674" s="4">
         <v>12</v>
@@ -42982,7 +42982,7 @@
         <v>14</v>
       </c>
       <c r="F675" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G675" s="4">
         <v>12</v>
@@ -43045,7 +43045,7 @@
         <v>14</v>
       </c>
       <c r="F676" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G676" s="4">
         <v>12</v>
@@ -43108,7 +43108,7 @@
         <v>14</v>
       </c>
       <c r="F677" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G677" s="4">
         <v>12</v>
@@ -43171,7 +43171,7 @@
         <v>14</v>
       </c>
       <c r="F678" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G678" s="4">
         <v>12</v>
@@ -43234,7 +43234,7 @@
         <v>14</v>
       </c>
       <c r="F679" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G679" s="4">
         <v>12</v>
@@ -43297,7 +43297,7 @@
         <v>14</v>
       </c>
       <c r="F680" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G680" s="4">
         <v>12</v>
@@ -43360,7 +43360,7 @@
         <v>14</v>
       </c>
       <c r="F681" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G681" s="4">
         <v>12</v>
@@ -43423,7 +43423,7 @@
         <v>14</v>
       </c>
       <c r="F682" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G682" s="4">
         <v>12</v>
@@ -43486,7 +43486,7 @@
         <v>14</v>
       </c>
       <c r="F683" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G683" s="4">
         <v>12</v>
@@ -43549,7 +43549,7 @@
         <v>14</v>
       </c>
       <c r="F684" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G684" s="4">
         <v>12</v>
@@ -43612,7 +43612,7 @@
         <v>14</v>
       </c>
       <c r="F685" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G685" s="4">
         <v>12</v>
@@ -43675,7 +43675,7 @@
         <v>14</v>
       </c>
       <c r="F686" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G686" s="4">
         <v>12</v>
@@ -43738,7 +43738,7 @@
         <v>14</v>
       </c>
       <c r="F687" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G687" s="4">
         <v>12</v>
@@ -43801,7 +43801,7 @@
         <v>14</v>
       </c>
       <c r="F688" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G688" s="4">
         <v>12</v>
@@ -43864,7 +43864,7 @@
         <v>14</v>
       </c>
       <c r="F689" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G689" s="4">
         <v>12</v>
@@ -43927,7 +43927,7 @@
         <v>14</v>
       </c>
       <c r="F690" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G690" s="4">
         <v>12</v>
@@ -43990,7 +43990,7 @@
         <v>14</v>
       </c>
       <c r="F691" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G691" s="4">
         <v>12</v>
@@ -44053,7 +44053,7 @@
         <v>14</v>
       </c>
       <c r="F692" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G692" s="4">
         <v>12</v>
@@ -44116,7 +44116,7 @@
         <v>14</v>
       </c>
       <c r="F693" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G693" s="4">
         <v>12</v>
@@ -44179,7 +44179,7 @@
         <v>14</v>
       </c>
       <c r="F694" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G694" s="4">
         <v>12</v>
@@ -44242,7 +44242,7 @@
         <v>14</v>
       </c>
       <c r="F695" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G695" s="4">
         <v>12</v>
@@ -44305,7 +44305,7 @@
         <v>14</v>
       </c>
       <c r="F696" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G696" s="4">
         <v>12</v>
@@ -44368,7 +44368,7 @@
         <v>14</v>
       </c>
       <c r="F697" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G697" s="4">
         <v>12</v>
@@ -44431,7 +44431,7 @@
         <v>14</v>
       </c>
       <c r="F698" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G698" s="4">
         <v>12</v>
@@ -44494,7 +44494,7 @@
         <v>14</v>
       </c>
       <c r="F699" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G699" s="4">
         <v>13</v>
@@ -44557,7 +44557,7 @@
         <v>14</v>
       </c>
       <c r="F700" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G700" s="4">
         <v>13</v>
@@ -44620,7 +44620,7 @@
         <v>14</v>
       </c>
       <c r="F701" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G701" s="4">
         <v>13</v>
@@ -44683,7 +44683,7 @@
         <v>14</v>
       </c>
       <c r="F702" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G702" s="4">
         <v>13</v>
@@ -44746,7 +44746,7 @@
         <v>14</v>
       </c>
       <c r="F703" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G703" s="4">
         <v>13</v>
@@ -44809,7 +44809,7 @@
         <v>14</v>
       </c>
       <c r="F704" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G704" s="4">
         <v>13</v>
@@ -44872,7 +44872,7 @@
         <v>14</v>
       </c>
       <c r="F705" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G705" s="4">
         <v>13</v>
@@ -44935,7 +44935,7 @@
         <v>14</v>
       </c>
       <c r="F706" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G706" s="4">
         <v>13</v>
@@ -44998,7 +44998,7 @@
         <v>14</v>
       </c>
       <c r="F707" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G707" s="4">
         <v>13</v>
@@ -45061,7 +45061,7 @@
         <v>14</v>
       </c>
       <c r="F708" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G708" s="4">
         <v>13</v>
@@ -45124,7 +45124,7 @@
         <v>14</v>
       </c>
       <c r="F709" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G709" s="4">
         <v>13</v>
@@ -45187,7 +45187,7 @@
         <v>14</v>
       </c>
       <c r="F710" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G710" s="4">
         <v>13</v>
@@ -45250,7 +45250,7 @@
         <v>14</v>
       </c>
       <c r="F711" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G711" s="4">
         <v>13</v>
@@ -45313,7 +45313,7 @@
         <v>14</v>
       </c>
       <c r="F712" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G712" s="4">
         <v>13</v>
@@ -45376,7 +45376,7 @@
         <v>14</v>
       </c>
       <c r="F713" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G713" s="4">
         <v>13</v>
@@ -45439,7 +45439,7 @@
         <v>14</v>
       </c>
       <c r="F714" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G714" s="4">
         <v>13</v>
@@ -45502,7 +45502,7 @@
         <v>14</v>
       </c>
       <c r="F715" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G715" s="4">
         <v>13</v>
@@ -45565,7 +45565,7 @@
         <v>14</v>
       </c>
       <c r="F716" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G716" s="4">
         <v>13</v>
@@ -45628,7 +45628,7 @@
         <v>14</v>
       </c>
       <c r="F717" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G717" s="4">
         <v>13</v>
@@ -45691,7 +45691,7 @@
         <v>14</v>
       </c>
       <c r="F718" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G718" s="4">
         <v>13</v>
@@ -45754,7 +45754,7 @@
         <v>14</v>
       </c>
       <c r="F719" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G719" s="4">
         <v>13</v>
@@ -45817,7 +45817,7 @@
         <v>14</v>
       </c>
       <c r="F720" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G720" s="4">
         <v>13</v>
@@ -45880,7 +45880,7 @@
         <v>14</v>
       </c>
       <c r="F721" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G721" s="4">
         <v>13</v>
@@ -45943,7 +45943,7 @@
         <v>14</v>
       </c>
       <c r="F722" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G722" s="4">
         <v>13</v>
@@ -46006,7 +46006,7 @@
         <v>14</v>
       </c>
       <c r="F723" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G723" s="4">
         <v>13</v>
@@ -46069,7 +46069,7 @@
         <v>14</v>
       </c>
       <c r="F724" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G724" s="4">
         <v>13</v>
@@ -46132,7 +46132,7 @@
         <v>14</v>
       </c>
       <c r="F725" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G725" s="4">
         <v>13</v>
@@ -46195,7 +46195,7 @@
         <v>14</v>
       </c>
       <c r="F726" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G726" s="4">
         <v>13</v>
@@ -46258,7 +46258,7 @@
         <v>14</v>
       </c>
       <c r="F727" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G727" s="4">
         <v>13</v>
@@ -46321,7 +46321,7 @@
         <v>14</v>
       </c>
       <c r="F728" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G728" s="4">
         <v>13</v>
@@ -46384,7 +46384,7 @@
         <v>14</v>
       </c>
       <c r="F729" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G729" s="4">
         <v>13</v>
@@ -46447,7 +46447,7 @@
         <v>14</v>
       </c>
       <c r="F730" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G730" s="4">
         <v>13</v>
@@ -46510,7 +46510,7 @@
         <v>14</v>
       </c>
       <c r="F731" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G731" s="4">
         <v>13</v>
@@ -46573,7 +46573,7 @@
         <v>14</v>
       </c>
       <c r="F732" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G732" s="4">
         <v>13</v>
@@ -46636,7 +46636,7 @@
         <v>14</v>
       </c>
       <c r="F733" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G733" s="4">
         <v>13</v>
@@ -46699,7 +46699,7 @@
         <v>14</v>
       </c>
       <c r="F734" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G734" s="4">
         <v>13</v>
@@ -46762,7 +46762,7 @@
         <v>14</v>
       </c>
       <c r="F735" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G735" s="4">
         <v>13</v>
@@ -46825,7 +46825,7 @@
         <v>14</v>
       </c>
       <c r="F736" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G736" s="4">
         <v>13</v>
@@ -46888,7 +46888,7 @@
         <v>14</v>
       </c>
       <c r="F737" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G737" s="4">
         <v>13</v>
@@ -46951,7 +46951,7 @@
         <v>14</v>
       </c>
       <c r="F738" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G738" s="4">
         <v>13</v>
@@ -47014,7 +47014,7 @@
         <v>14</v>
       </c>
       <c r="F739" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G739" s="4">
         <v>13</v>
@@ -47077,7 +47077,7 @@
         <v>14</v>
       </c>
       <c r="F740" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G740" s="4">
         <v>13</v>
@@ -47140,7 +47140,7 @@
         <v>14</v>
       </c>
       <c r="F741" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G741" s="4">
         <v>13</v>
@@ -47203,7 +47203,7 @@
         <v>14</v>
       </c>
       <c r="F742" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G742" s="4">
         <v>13</v>
@@ -47266,7 +47266,7 @@
         <v>14</v>
       </c>
       <c r="F743" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G743" s="4">
         <v>13</v>
@@ -47329,7 +47329,7 @@
         <v>14</v>
       </c>
       <c r="F744" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G744" s="4">
         <v>13</v>
@@ -47392,7 +47392,7 @@
         <v>14</v>
       </c>
       <c r="F745" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G745" s="4">
         <v>13</v>
@@ -47455,7 +47455,7 @@
         <v>14</v>
       </c>
       <c r="F746" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G746" s="4">
         <v>13</v>
@@ -47518,7 +47518,7 @@
         <v>14</v>
       </c>
       <c r="F747" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G747" s="4">
         <v>13</v>
@@ -47581,7 +47581,7 @@
         <v>14</v>
       </c>
       <c r="F748" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G748" s="4">
         <v>13</v>
@@ -47644,7 +47644,7 @@
         <v>14</v>
       </c>
       <c r="F749" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G749" s="4">
         <v>13</v>
@@ -47707,7 +47707,7 @@
         <v>14</v>
       </c>
       <c r="F750" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G750" s="4">
         <v>13</v>
@@ -47770,7 +47770,7 @@
         <v>14</v>
       </c>
       <c r="F751" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G751" s="4">
         <v>13</v>
@@ -47833,7 +47833,7 @@
         <v>14</v>
       </c>
       <c r="F752" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G752" s="4">
         <v>13</v>
@@ -47896,7 +47896,7 @@
         <v>14</v>
       </c>
       <c r="F753" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G753" s="4">
         <v>13</v>
@@ -47959,7 +47959,7 @@
         <v>14</v>
       </c>
       <c r="F754" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G754" s="4">
         <v>13</v>
@@ -48022,7 +48022,7 @@
         <v>14</v>
       </c>
       <c r="F755" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G755" s="4">
         <v>13</v>
@@ -48085,7 +48085,7 @@
         <v>14</v>
       </c>
       <c r="F756" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G756" s="4">
         <v>13</v>
@@ -48148,7 +48148,7 @@
         <v>14</v>
       </c>
       <c r="F757" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G757" s="4">
         <v>13</v>
@@ -48211,7 +48211,7 @@
         <v>14</v>
       </c>
       <c r="F758" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G758" s="4">
         <v>13</v>
@@ -48274,7 +48274,7 @@
         <v>14</v>
       </c>
       <c r="F759" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G759" s="4">
         <v>13</v>
@@ -48337,7 +48337,7 @@
         <v>14</v>
       </c>
       <c r="F760" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G760" s="4">
         <v>14</v>
@@ -48400,7 +48400,7 @@
         <v>14</v>
       </c>
       <c r="F761" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G761" s="4">
         <v>14</v>
@@ -48463,7 +48463,7 @@
         <v>14</v>
       </c>
       <c r="F762" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G762" s="4">
         <v>14</v>
@@ -48526,7 +48526,7 @@
         <v>14</v>
       </c>
       <c r="F763" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G763" s="4">
         <v>14</v>
@@ -48589,7 +48589,7 @@
         <v>14</v>
       </c>
       <c r="F764" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G764" s="4">
         <v>14</v>
@@ -48652,7 +48652,7 @@
         <v>14</v>
       </c>
       <c r="F765" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G765" s="4">
         <v>14</v>
@@ -48715,7 +48715,7 @@
         <v>14</v>
       </c>
       <c r="F766" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G766" s="4">
         <v>14</v>
@@ -48778,7 +48778,7 @@
         <v>14</v>
       </c>
       <c r="F767" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G767" s="4">
         <v>14</v>
@@ -48841,7 +48841,7 @@
         <v>14</v>
       </c>
       <c r="F768" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G768" s="4">
         <v>14</v>
@@ -48904,7 +48904,7 @@
         <v>14</v>
       </c>
       <c r="F769" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G769" s="4">
         <v>14</v>
@@ -48967,7 +48967,7 @@
         <v>14</v>
       </c>
       <c r="F770" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G770" s="4">
         <v>14</v>
@@ -49030,7 +49030,7 @@
         <v>14</v>
       </c>
       <c r="F771" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G771" s="4">
         <v>14</v>
@@ -49093,7 +49093,7 @@
         <v>14</v>
       </c>
       <c r="F772" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G772" s="4">
         <v>14</v>
@@ -49156,7 +49156,7 @@
         <v>14</v>
       </c>
       <c r="F773" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G773" s="4">
         <v>14</v>
@@ -49219,7 +49219,7 @@
         <v>14</v>
       </c>
       <c r="F774" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G774" s="4">
         <v>14</v>
@@ -49282,7 +49282,7 @@
         <v>14</v>
       </c>
       <c r="F775" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G775" s="4">
         <v>14</v>
@@ -49345,7 +49345,7 @@
         <v>14</v>
       </c>
       <c r="F776" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G776" s="4">
         <v>14</v>
@@ -49408,7 +49408,7 @@
         <v>14</v>
       </c>
       <c r="F777" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G777" s="4">
         <v>14</v>
@@ -49471,7 +49471,7 @@
         <v>14</v>
       </c>
       <c r="F778" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G778" s="4">
         <v>14</v>
@@ -49534,7 +49534,7 @@
         <v>14</v>
       </c>
       <c r="F779" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G779" s="4">
         <v>14</v>
@@ -49597,7 +49597,7 @@
         <v>14</v>
       </c>
       <c r="F780" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G780" s="4">
         <v>14</v>
@@ -49660,7 +49660,7 @@
         <v>14</v>
       </c>
       <c r="F781" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G781" s="4">
         <v>14</v>
@@ -49723,7 +49723,7 @@
         <v>14</v>
       </c>
       <c r="F782" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G782" s="4">
         <v>14</v>
@@ -49786,7 +49786,7 @@
         <v>14</v>
       </c>
       <c r="F783" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G783" s="4">
         <v>14</v>
@@ -49849,7 +49849,7 @@
         <v>14</v>
       </c>
       <c r="F784" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G784" s="4">
         <v>14</v>
@@ -49912,7 +49912,7 @@
         <v>14</v>
       </c>
       <c r="F785" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G785" s="4">
         <v>14</v>
@@ -49975,7 +49975,7 @@
         <v>14</v>
       </c>
       <c r="F786" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G786" s="4">
         <v>14</v>
@@ -50038,7 +50038,7 @@
         <v>14</v>
       </c>
       <c r="F787" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G787" s="4">
         <v>14</v>
@@ -50101,7 +50101,7 @@
         <v>14</v>
       </c>
       <c r="F788" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G788" s="4">
         <v>14</v>
@@ -50164,7 +50164,7 @@
         <v>14</v>
       </c>
       <c r="F789" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G789" s="4">
         <v>14</v>
@@ -50227,7 +50227,7 @@
         <v>14</v>
       </c>
       <c r="F790" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G790" s="4">
         <v>14</v>
@@ -50290,7 +50290,7 @@
         <v>14</v>
       </c>
       <c r="F791" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G791" s="4">
         <v>14</v>
@@ -50353,7 +50353,7 @@
         <v>14</v>
       </c>
       <c r="F792" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G792" s="4">
         <v>14</v>
@@ -50416,7 +50416,7 @@
         <v>14</v>
       </c>
       <c r="F793" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G793" s="4">
         <v>14</v>
@@ -50479,7 +50479,7 @@
         <v>14</v>
       </c>
       <c r="F794" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G794" s="4">
         <v>14</v>
@@ -50542,7 +50542,7 @@
         <v>14</v>
       </c>
       <c r="F795" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G795" s="4">
         <v>14</v>
@@ -50605,7 +50605,7 @@
         <v>14</v>
       </c>
       <c r="F796" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G796" s="4">
         <v>14</v>
@@ -50668,7 +50668,7 @@
         <v>14</v>
       </c>
       <c r="F797" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G797" s="4">
         <v>14</v>
@@ -50731,7 +50731,7 @@
         <v>14</v>
       </c>
       <c r="F798" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G798" s="4">
         <v>14</v>
@@ -50794,7 +50794,7 @@
         <v>14</v>
       </c>
       <c r="F799" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G799" s="4">
         <v>14</v>
@@ -50857,7 +50857,7 @@
         <v>14</v>
       </c>
       <c r="F800" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G800" s="4">
         <v>14</v>
@@ -50920,7 +50920,7 @@
         <v>14</v>
       </c>
       <c r="F801" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G801" s="4">
         <v>14</v>
@@ -50983,7 +50983,7 @@
         <v>14</v>
       </c>
       <c r="F802" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G802" s="4">
         <v>14</v>
@@ -51046,7 +51046,7 @@
         <v>14</v>
       </c>
       <c r="F803" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G803" s="4">
         <v>14</v>
@@ -51109,7 +51109,7 @@
         <v>14</v>
       </c>
       <c r="F804" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G804" s="4">
         <v>14</v>
@@ -51172,7 +51172,7 @@
         <v>14</v>
       </c>
       <c r="F805" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G805" s="4">
         <v>14</v>
@@ -51235,7 +51235,7 @@
         <v>14</v>
       </c>
       <c r="F806" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G806" s="4">
         <v>14</v>
@@ -51298,7 +51298,7 @@
         <v>14</v>
       </c>
       <c r="F807" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G807" s="4">
         <v>14</v>
@@ -51361,7 +51361,7 @@
         <v>14</v>
       </c>
       <c r="F808" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G808" s="4">
         <v>14</v>
@@ -51424,7 +51424,7 @@
         <v>14</v>
       </c>
       <c r="F809" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G809" s="4">
         <v>14</v>
@@ -51487,7 +51487,7 @@
         <v>14</v>
       </c>
       <c r="F810" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G810" s="4">
         <v>14</v>
@@ -51550,7 +51550,7 @@
         <v>14</v>
       </c>
       <c r="F811" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G811" s="4">
         <v>14</v>
@@ -51613,7 +51613,7 @@
         <v>14</v>
       </c>
       <c r="F812" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G812" s="4">
         <v>14</v>
@@ -51676,7 +51676,7 @@
         <v>14</v>
       </c>
       <c r="F813" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G813" s="4">
         <v>14</v>
@@ -51739,7 +51739,7 @@
         <v>14</v>
       </c>
       <c r="F814" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G814" s="4">
         <v>14</v>
@@ -51802,7 +51802,7 @@
         <v>14</v>
       </c>
       <c r="F815" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G815" s="4">
         <v>14</v>
@@ -51865,7 +51865,7 @@
         <v>14</v>
       </c>
       <c r="F816" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G816" s="4">
         <v>14</v>
@@ -51928,7 +51928,7 @@
         <v>14</v>
       </c>
       <c r="F817" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G817" s="4">
         <v>14</v>
@@ -51991,7 +51991,7 @@
         <v>14</v>
       </c>
       <c r="F818" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G818" s="4">
         <v>14</v>
@@ -52054,7 +52054,7 @@
         <v>14</v>
       </c>
       <c r="F819" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G819" s="4">
         <v>14</v>
@@ -52117,7 +52117,7 @@
         <v>14</v>
       </c>
       <c r="F820" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G820" s="4">
         <v>14</v>
@@ -52180,7 +52180,7 @@
         <v>14</v>
       </c>
       <c r="F821" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G821" s="4">
         <v>15</v>
@@ -52243,7 +52243,7 @@
         <v>14</v>
       </c>
       <c r="F822" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G822" s="4">
         <v>15</v>
@@ -52306,7 +52306,7 @@
         <v>14</v>
       </c>
       <c r="F823" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G823" s="4">
         <v>15</v>
@@ -52369,7 +52369,7 @@
         <v>14</v>
       </c>
       <c r="F824" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G824" s="4">
         <v>15</v>
@@ -52432,7 +52432,7 @@
         <v>14</v>
       </c>
       <c r="F825" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G825" s="4">
         <v>15</v>
@@ -52495,7 +52495,7 @@
         <v>14</v>
       </c>
       <c r="F826" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G826" s="4">
         <v>15</v>
@@ -52558,7 +52558,7 @@
         <v>14</v>
       </c>
       <c r="F827" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G827" s="4">
         <v>15</v>
@@ -52621,7 +52621,7 @@
         <v>14</v>
       </c>
       <c r="F828" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G828" s="4">
         <v>15</v>
@@ -52684,7 +52684,7 @@
         <v>14</v>
       </c>
       <c r="F829" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G829" s="4">
         <v>15</v>
@@ -52747,7 +52747,7 @@
         <v>14</v>
       </c>
       <c r="F830" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G830" s="4">
         <v>15</v>
@@ -52810,7 +52810,7 @@
         <v>14</v>
       </c>
       <c r="F831" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G831" s="4">
         <v>15</v>
@@ -52873,7 +52873,7 @@
         <v>14</v>
       </c>
       <c r="F832" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G832" s="4">
         <v>15</v>
@@ -52936,7 +52936,7 @@
         <v>14</v>
       </c>
       <c r="F833" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G833" s="4">
         <v>15</v>
@@ -52999,7 +52999,7 @@
         <v>14</v>
       </c>
       <c r="F834" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G834" s="4">
         <v>15</v>
@@ -53062,7 +53062,7 @@
         <v>14</v>
       </c>
       <c r="F835" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G835" s="4">
         <v>15</v>
@@ -53125,7 +53125,7 @@
         <v>14</v>
       </c>
       <c r="F836" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G836" s="4">
         <v>15</v>
@@ -53188,7 +53188,7 @@
         <v>14</v>
       </c>
       <c r="F837" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G837" s="4">
         <v>15</v>
@@ -53251,7 +53251,7 @@
         <v>14</v>
       </c>
       <c r="F838" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G838" s="4">
         <v>15</v>
@@ -53314,7 +53314,7 @@
         <v>14</v>
       </c>
       <c r="F839" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G839" s="4">
         <v>15</v>
@@ -53377,7 +53377,7 @@
         <v>14</v>
       </c>
       <c r="F840" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G840" s="4">
         <v>15</v>
@@ -53440,7 +53440,7 @@
         <v>14</v>
       </c>
       <c r="F841" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G841" s="4">
         <v>15</v>
@@ -53503,7 +53503,7 @@
         <v>14</v>
       </c>
       <c r="F842" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G842" s="4">
         <v>15</v>
@@ -53566,7 +53566,7 @@
         <v>14</v>
       </c>
       <c r="F843" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G843" s="4">
         <v>15</v>
@@ -53629,7 +53629,7 @@
         <v>14</v>
       </c>
       <c r="F844" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G844" s="4">
         <v>15</v>
@@ -53692,7 +53692,7 @@
         <v>14</v>
       </c>
       <c r="F845" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G845" s="4">
         <v>15</v>
@@ -53755,7 +53755,7 @@
         <v>14</v>
       </c>
       <c r="F846" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G846" s="4">
         <v>15</v>
@@ -53818,7 +53818,7 @@
         <v>14</v>
       </c>
       <c r="F847" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G847" s="4">
         <v>15</v>
@@ -53881,7 +53881,7 @@
         <v>14</v>
       </c>
       <c r="F848" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G848" s="4">
         <v>15</v>
@@ -53944,7 +53944,7 @@
         <v>14</v>
       </c>
       <c r="F849" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G849" s="4">
         <v>15</v>
@@ -54007,7 +54007,7 @@
         <v>14</v>
       </c>
       <c r="F850" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G850" s="4">
         <v>15</v>
@@ -54070,7 +54070,7 @@
         <v>14</v>
       </c>
       <c r="F851" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G851" s="4">
         <v>15</v>
@@ -54133,7 +54133,7 @@
         <v>14</v>
       </c>
       <c r="F852" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G852" s="4">
         <v>15</v>
@@ -54196,7 +54196,7 @@
         <v>14</v>
       </c>
       <c r="F853" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G853" s="4">
         <v>15</v>
@@ -54259,7 +54259,7 @@
         <v>14</v>
       </c>
       <c r="F854" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G854" s="4">
         <v>15</v>
@@ -54322,7 +54322,7 @@
         <v>14</v>
       </c>
       <c r="F855" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G855" s="4">
         <v>15</v>
@@ -54385,7 +54385,7 @@
         <v>14</v>
       </c>
       <c r="F856" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G856" s="4">
         <v>15</v>
@@ -54448,7 +54448,7 @@
         <v>14</v>
       </c>
       <c r="F857" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G857" s="4">
         <v>15</v>
@@ -54511,7 +54511,7 @@
         <v>14</v>
       </c>
       <c r="F858" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G858" s="4">
         <v>15</v>
@@ -54574,7 +54574,7 @@
         <v>14</v>
       </c>
       <c r="F859" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G859" s="4">
         <v>15</v>
@@ -54637,7 +54637,7 @@
         <v>14</v>
       </c>
       <c r="F860" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G860" s="4">
         <v>15</v>
@@ -54700,7 +54700,7 @@
         <v>14</v>
       </c>
       <c r="F861" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G861" s="4">
         <v>15</v>
@@ -54763,7 +54763,7 @@
         <v>14</v>
       </c>
       <c r="F862" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G862" s="4">
         <v>15</v>
@@ -54826,7 +54826,7 @@
         <v>14</v>
       </c>
       <c r="F863" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G863" s="4">
         <v>15</v>
@@ -54889,7 +54889,7 @@
         <v>14</v>
       </c>
       <c r="F864" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G864" s="4">
         <v>15</v>
@@ -54952,7 +54952,7 @@
         <v>14</v>
       </c>
       <c r="F865" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G865" s="4">
         <v>15</v>
@@ -55015,7 +55015,7 @@
         <v>14</v>
       </c>
       <c r="F866" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G866" s="4">
         <v>15</v>
@@ -55078,7 +55078,7 @@
         <v>14</v>
       </c>
       <c r="F867" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G867" s="4">
         <v>15</v>
@@ -55141,7 +55141,7 @@
         <v>14</v>
       </c>
       <c r="F868" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G868" s="4">
         <v>15</v>
@@ -55204,7 +55204,7 @@
         <v>14</v>
       </c>
       <c r="F869" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G869" s="4">
         <v>15</v>
@@ -55267,7 +55267,7 @@
         <v>14</v>
       </c>
       <c r="F870" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G870" s="4">
         <v>15</v>
@@ -55330,7 +55330,7 @@
         <v>14</v>
       </c>
       <c r="F871" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G871" s="4">
         <v>15</v>
@@ -55393,7 +55393,7 @@
         <v>14</v>
       </c>
       <c r="F872" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G872" s="4">
         <v>15</v>
@@ -55456,7 +55456,7 @@
         <v>14</v>
       </c>
       <c r="F873" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G873" s="4">
         <v>15</v>
@@ -55519,7 +55519,7 @@
         <v>14</v>
       </c>
       <c r="F874" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G874" s="4">
         <v>15</v>
@@ -55582,7 +55582,7 @@
         <v>14</v>
       </c>
       <c r="F875" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G875" s="4">
         <v>15</v>
@@ -55645,7 +55645,7 @@
         <v>14</v>
       </c>
       <c r="F876" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G876" s="4">
         <v>15</v>
@@ -55708,7 +55708,7 @@
         <v>14</v>
       </c>
       <c r="F877" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G877" s="4">
         <v>15</v>
@@ -55771,7 +55771,7 @@
         <v>14</v>
       </c>
       <c r="F878" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G878" s="4">
         <v>15</v>
@@ -55834,7 +55834,7 @@
         <v>14</v>
       </c>
       <c r="F879" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G879" s="4">
         <v>15</v>
@@ -55897,7 +55897,7 @@
         <v>14</v>
       </c>
       <c r="F880" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G880" s="4">
         <v>15</v>
@@ -55960,7 +55960,7 @@
         <v>14</v>
       </c>
       <c r="F881" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G881" s="4">
         <v>15</v>
@@ -56023,7 +56023,7 @@
         <v>14</v>
       </c>
       <c r="F882" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G882" s="4">
         <v>16</v>
@@ -56086,7 +56086,7 @@
         <v>14</v>
       </c>
       <c r="F883" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G883" s="4">
         <v>16</v>
@@ -56149,7 +56149,7 @@
         <v>14</v>
       </c>
       <c r="F884" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G884" s="4">
         <v>16</v>
@@ -56212,7 +56212,7 @@
         <v>14</v>
       </c>
       <c r="F885" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G885" s="4">
         <v>16</v>
@@ -56275,7 +56275,7 @@
         <v>14</v>
       </c>
       <c r="F886" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G886" s="4">
         <v>16</v>
@@ -56338,7 +56338,7 @@
         <v>14</v>
       </c>
       <c r="F887" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G887" s="4">
         <v>16</v>
@@ -56401,7 +56401,7 @@
         <v>14</v>
       </c>
       <c r="F888" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G888" s="4">
         <v>16</v>
@@ -56464,7 +56464,7 @@
         <v>14</v>
       </c>
       <c r="F889" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G889" s="4">
         <v>16</v>
@@ -56527,7 +56527,7 @@
         <v>14</v>
       </c>
       <c r="F890" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G890" s="4">
         <v>16</v>
@@ -56590,7 +56590,7 @@
         <v>14</v>
       </c>
       <c r="F891" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G891" s="4">
         <v>16</v>
@@ -56653,7 +56653,7 @@
         <v>14</v>
       </c>
       <c r="F892" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G892" s="4">
         <v>16</v>
@@ -56716,7 +56716,7 @@
         <v>14</v>
       </c>
       <c r="F893" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G893" s="4">
         <v>16</v>
@@ -56779,7 +56779,7 @@
         <v>14</v>
       </c>
       <c r="F894" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G894" s="4">
         <v>16</v>
@@ -56842,7 +56842,7 @@
         <v>14</v>
       </c>
       <c r="F895" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G895" s="4">
         <v>16</v>
@@ -56905,7 +56905,7 @@
         <v>14</v>
       </c>
       <c r="F896" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G896" s="4">
         <v>16</v>
@@ -56968,7 +56968,7 @@
         <v>14</v>
       </c>
       <c r="F897" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G897" s="4">
         <v>16</v>
@@ -57031,7 +57031,7 @@
         <v>14</v>
       </c>
       <c r="F898" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G898" s="4">
         <v>16</v>
@@ -57094,7 +57094,7 @@
         <v>14</v>
       </c>
       <c r="F899" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G899" s="4">
         <v>16</v>
@@ -57157,7 +57157,7 @@
         <v>14</v>
       </c>
       <c r="F900" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G900" s="4">
         <v>16</v>
@@ -57220,7 +57220,7 @@
         <v>14</v>
       </c>
       <c r="F901" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G901" s="4">
         <v>16</v>
@@ -57283,7 +57283,7 @@
         <v>14</v>
       </c>
       <c r="F902" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G902" s="4">
         <v>16</v>
@@ -57346,7 +57346,7 @@
         <v>14</v>
       </c>
       <c r="F903" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G903" s="4">
         <v>16</v>
@@ -57409,7 +57409,7 @@
         <v>14</v>
       </c>
       <c r="F904" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G904" s="4">
         <v>16</v>
@@ -57472,7 +57472,7 @@
         <v>14</v>
       </c>
       <c r="F905" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G905" s="4">
         <v>16</v>
@@ -57535,7 +57535,7 @@
         <v>14</v>
       </c>
       <c r="F906" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G906" s="4">
         <v>16</v>
@@ -57598,7 +57598,7 @@
         <v>14</v>
       </c>
       <c r="F907" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G907" s="4">
         <v>16</v>
@@ -57661,7 +57661,7 @@
         <v>14</v>
       </c>
       <c r="F908" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G908" s="4">
         <v>16</v>
@@ -57724,7 +57724,7 @@
         <v>14</v>
       </c>
       <c r="F909" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G909" s="4">
         <v>16</v>
@@ -57787,7 +57787,7 @@
         <v>14</v>
       </c>
       <c r="F910" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G910" s="4">
         <v>16</v>
@@ -57850,7 +57850,7 @@
         <v>14</v>
       </c>
       <c r="F911" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G911" s="4">
         <v>16</v>
@@ -57913,7 +57913,7 @@
         <v>14</v>
       </c>
       <c r="F912" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G912" s="4">
         <v>16</v>
@@ -57976,7 +57976,7 @@
         <v>14</v>
       </c>
       <c r="F913" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G913" s="4">
         <v>16</v>
@@ -58039,7 +58039,7 @@
         <v>14</v>
       </c>
       <c r="F914" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G914" s="4">
         <v>16</v>
@@ -58102,7 +58102,7 @@
         <v>14</v>
       </c>
       <c r="F915" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G915" s="4">
         <v>16</v>
@@ -58165,7 +58165,7 @@
         <v>14</v>
       </c>
       <c r="F916" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G916" s="4">
         <v>16</v>
@@ -58228,7 +58228,7 @@
         <v>14</v>
       </c>
       <c r="F917" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G917" s="4">
         <v>16</v>
@@ -58291,7 +58291,7 @@
         <v>14</v>
       </c>
       <c r="F918" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G918" s="4">
         <v>16</v>
@@ -58354,7 +58354,7 @@
         <v>14</v>
       </c>
       <c r="F919" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G919" s="4">
         <v>16</v>
@@ -58417,7 +58417,7 @@
         <v>14</v>
       </c>
       <c r="F920" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G920" s="4">
         <v>16</v>
@@ -58480,7 +58480,7 @@
         <v>14</v>
       </c>
       <c r="F921" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G921" s="4">
         <v>16</v>
@@ -58543,7 +58543,7 @@
         <v>14</v>
       </c>
       <c r="F922" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G922" s="4">
         <v>16</v>
@@ -58606,7 +58606,7 @@
         <v>14</v>
       </c>
       <c r="F923" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G923" s="4">
         <v>16</v>
@@ -58669,7 +58669,7 @@
         <v>14</v>
       </c>
       <c r="F924" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G924" s="4">
         <v>16</v>
@@ -58732,7 +58732,7 @@
         <v>14</v>
       </c>
       <c r="F925" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G925" s="4">
         <v>16</v>
@@ -58795,7 +58795,7 @@
         <v>14</v>
       </c>
       <c r="F926" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G926" s="4">
         <v>16</v>
@@ -58858,7 +58858,7 @@
         <v>14</v>
       </c>
       <c r="F927" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G927" s="4">
         <v>16</v>
@@ -58921,7 +58921,7 @@
         <v>14</v>
       </c>
       <c r="F928" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G928" s="4">
         <v>16</v>
@@ -58984,7 +58984,7 @@
         <v>14</v>
       </c>
       <c r="F929" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G929" s="4">
         <v>16</v>
@@ -59047,7 +59047,7 @@
         <v>14</v>
       </c>
       <c r="F930" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G930" s="4">
         <v>16</v>
@@ -59110,7 +59110,7 @@
         <v>14</v>
       </c>
       <c r="F931" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G931" s="4">
         <v>16</v>
@@ -59173,7 +59173,7 @@
         <v>14</v>
       </c>
       <c r="F932" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G932" s="4">
         <v>16</v>
@@ -59236,7 +59236,7 @@
         <v>14</v>
       </c>
       <c r="F933" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G933" s="4">
         <v>16</v>
@@ -59299,7 +59299,7 @@
         <v>14</v>
       </c>
       <c r="F934" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G934" s="4">
         <v>16</v>
@@ -59362,7 +59362,7 @@
         <v>14</v>
       </c>
       <c r="F935" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G935" s="4">
         <v>16</v>
@@ -59425,7 +59425,7 @@
         <v>14</v>
       </c>
       <c r="F936" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G936" s="4">
         <v>16</v>
@@ -59488,7 +59488,7 @@
         <v>14</v>
       </c>
       <c r="F937" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G937" s="4">
         <v>16</v>
@@ -59551,7 +59551,7 @@
         <v>14</v>
       </c>
       <c r="F938" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G938" s="4">
         <v>16</v>
@@ -59614,7 +59614,7 @@
         <v>14</v>
       </c>
       <c r="F939" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G939" s="4">
         <v>16</v>
@@ -59677,7 +59677,7 @@
         <v>14</v>
       </c>
       <c r="F940" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G940" s="4">
         <v>16</v>
@@ -59740,7 +59740,7 @@
         <v>14</v>
       </c>
       <c r="F941" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G941" s="4">
         <v>16</v>
@@ -59803,7 +59803,7 @@
         <v>14</v>
       </c>
       <c r="F942" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G942" s="4">
         <v>16</v>
